--- a/需求响应/data/DistributionNetwork3/PrivateCar.xlsx
+++ b/需求响应/data/DistributionNetwork3/PrivateCar.xlsx
@@ -502,34 +502,34 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B2" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D2" t="n">
         <v>0.6</v>
       </c>
       <c r="E2" t="n">
-        <v>41.8</v>
+        <v>40.3</v>
       </c>
       <c r="F2" t="n">
         <v>0.1</v>
       </c>
       <c r="G2" t="n">
-        <v>59.7</v>
+        <v>61.2</v>
       </c>
       <c r="H2" t="n">
-        <v>60.8</v>
+        <v>59.8</v>
       </c>
       <c r="I2" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="J2" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="K2" t="n">
         <v>0.4</v>
@@ -538,7 +538,7 @@
         <v>0.9</v>
       </c>
       <c r="M2" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3">
@@ -546,28 +546,28 @@
         <v>60</v>
       </c>
       <c r="B3" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C3" t="n">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D3" t="n">
         <v>0.7</v>
       </c>
       <c r="E3" t="n">
-        <v>36.1</v>
+        <v>38.7</v>
       </c>
       <c r="F3" t="n">
         <v>0.1</v>
       </c>
       <c r="G3" t="n">
-        <v>61.2</v>
+        <v>60.9</v>
       </c>
       <c r="H3" t="n">
-        <v>61.3</v>
+        <v>59.5</v>
       </c>
       <c r="I3" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="J3" t="n">
         <v>0.9</v>
@@ -579,7 +579,7 @@
         <v>0.9</v>
       </c>
       <c r="M3" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4">
@@ -587,28 +587,28 @@
         <v>58</v>
       </c>
       <c r="B4" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C4" t="n">
         <v>70</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="E4" t="n">
-        <v>39.9</v>
+        <v>38.5</v>
       </c>
       <c r="F4" t="n">
         <v>0.1</v>
       </c>
       <c r="G4" t="n">
-        <v>59.2</v>
+        <v>60.2</v>
       </c>
       <c r="H4" t="n">
-        <v>58.4</v>
+        <v>59.5</v>
       </c>
       <c r="I4" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J4" t="n">
         <v>0.8</v>
@@ -620,39 +620,39 @@
         <v>0.9</v>
       </c>
       <c r="M4" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B5" t="n">
         <v>27</v>
       </c>
       <c r="C5" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D5" t="n">
         <v>0.6</v>
       </c>
       <c r="E5" t="n">
-        <v>42.4</v>
+        <v>37.1</v>
       </c>
       <c r="F5" t="n">
         <v>0.1</v>
       </c>
       <c r="G5" t="n">
-        <v>62.3</v>
+        <v>59.2</v>
       </c>
       <c r="H5" t="n">
-        <v>60.4</v>
+        <v>59.4</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J5" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="K5" t="n">
         <v>0.4</v>
@@ -661,36 +661,36 @@
         <v>0.9</v>
       </c>
       <c r="M5" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B6" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C6" t="n">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D6" t="n">
         <v>0.6</v>
       </c>
       <c r="E6" t="n">
-        <v>42.5</v>
+        <v>40.9</v>
       </c>
       <c r="F6" t="n">
         <v>0.1</v>
       </c>
       <c r="G6" t="n">
-        <v>60.7</v>
+        <v>60.3</v>
       </c>
       <c r="H6" t="n">
-        <v>59.8</v>
+        <v>59.3</v>
       </c>
       <c r="I6" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J6" t="n">
         <v>0.8</v>
@@ -702,39 +702,39 @@
         <v>0.9</v>
       </c>
       <c r="M6" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B7" t="n">
         <v>28</v>
       </c>
       <c r="C7" t="n">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D7" t="n">
         <v>0.6</v>
       </c>
       <c r="E7" t="n">
-        <v>37.5</v>
+        <v>40.4</v>
       </c>
       <c r="F7" t="n">
         <v>0.1</v>
       </c>
       <c r="G7" t="n">
-        <v>60.3</v>
+        <v>61</v>
       </c>
       <c r="H7" t="n">
-        <v>61.2</v>
+        <v>58.5</v>
       </c>
       <c r="I7" t="n">
         <v>8</v>
       </c>
       <c r="J7" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="K7" t="n">
         <v>0.4</v>
@@ -743,7 +743,7 @@
         <v>0.9</v>
       </c>
       <c r="M7" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8">
@@ -751,25 +751,25 @@
         <v>60</v>
       </c>
       <c r="B8" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C8" t="n">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="E8" t="n">
-        <v>38.3</v>
+        <v>43.6</v>
       </c>
       <c r="F8" t="n">
         <v>0.1</v>
       </c>
       <c r="G8" t="n">
-        <v>59.8</v>
+        <v>62.1</v>
       </c>
       <c r="H8" t="n">
-        <v>59.4</v>
+        <v>61.3</v>
       </c>
       <c r="I8" t="n">
         <v>15</v>
@@ -784,7 +784,7 @@
         <v>0.9</v>
       </c>
       <c r="M8" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9">
@@ -792,31 +792,31 @@
         <v>61</v>
       </c>
       <c r="B9" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C9" t="n">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D9" t="n">
         <v>0.6</v>
       </c>
       <c r="E9" t="n">
-        <v>40.4</v>
+        <v>39.3</v>
       </c>
       <c r="F9" t="n">
         <v>0.1</v>
       </c>
       <c r="G9" t="n">
-        <v>61.2</v>
+        <v>61.4</v>
       </c>
       <c r="H9" t="n">
-        <v>59.3</v>
+        <v>59.5</v>
       </c>
       <c r="I9" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="J9" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="K9" t="n">
         <v>0.4</v>
@@ -825,7 +825,7 @@
         <v>0.9</v>
       </c>
       <c r="M9" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10">
@@ -833,31 +833,31 @@
         <v>60</v>
       </c>
       <c r="B10" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C10" t="n">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="E10" t="n">
-        <v>39.6</v>
+        <v>38.3</v>
       </c>
       <c r="F10" t="n">
         <v>0.1</v>
       </c>
       <c r="G10" t="n">
-        <v>58.7</v>
+        <v>59.7</v>
       </c>
       <c r="H10" t="n">
-        <v>58.8</v>
+        <v>59.6</v>
       </c>
       <c r="I10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J10" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="K10" t="n">
         <v>0.4</v>
@@ -866,39 +866,39 @@
         <v>0.9</v>
       </c>
       <c r="M10" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B11" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C11" t="n">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="E11" t="n">
-        <v>37.3</v>
+        <v>36.3</v>
       </c>
       <c r="F11" t="n">
         <v>0.1</v>
       </c>
       <c r="G11" t="n">
-        <v>59.9</v>
+        <v>59.2</v>
       </c>
       <c r="H11" t="n">
-        <v>59.8</v>
+        <v>60.7</v>
       </c>
       <c r="I11" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J11" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="K11" t="n">
         <v>0.4</v>
@@ -915,31 +915,31 @@
         <v>60</v>
       </c>
       <c r="B12" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C12" t="n">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D12" t="n">
         <v>0.6</v>
       </c>
       <c r="E12" t="n">
-        <v>37</v>
+        <v>41.5</v>
       </c>
       <c r="F12" t="n">
         <v>0.1</v>
       </c>
       <c r="G12" t="n">
-        <v>59.9</v>
+        <v>60.7</v>
       </c>
       <c r="H12" t="n">
-        <v>60.7</v>
+        <v>58.9</v>
       </c>
       <c r="I12" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J12" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="K12" t="n">
         <v>0.4</v>
@@ -948,39 +948,39 @@
         <v>0.9</v>
       </c>
       <c r="M12" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B13" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C13" t="n">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D13" t="n">
         <v>0.6</v>
       </c>
       <c r="E13" t="n">
-        <v>39.1</v>
+        <v>43.2</v>
       </c>
       <c r="F13" t="n">
         <v>0.1</v>
       </c>
       <c r="G13" t="n">
-        <v>61.1</v>
+        <v>59.3</v>
       </c>
       <c r="H13" t="n">
-        <v>57.8</v>
+        <v>61</v>
       </c>
       <c r="I13" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="J13" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="K13" t="n">
         <v>0.4</v>
@@ -994,34 +994,34 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B14" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C14" t="n">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D14" t="n">
         <v>0.6</v>
       </c>
       <c r="E14" t="n">
-        <v>40.3</v>
+        <v>42.4</v>
       </c>
       <c r="F14" t="n">
         <v>0.1</v>
       </c>
       <c r="G14" t="n">
-        <v>60.4</v>
+        <v>61.1</v>
       </c>
       <c r="H14" t="n">
-        <v>60.2</v>
+        <v>59.5</v>
       </c>
       <c r="I14" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J14" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="K14" t="n">
         <v>0.4</v>
@@ -1030,36 +1030,36 @@
         <v>0.9</v>
       </c>
       <c r="M14" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B15" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C15" t="n">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D15" t="n">
         <v>0.5</v>
       </c>
       <c r="E15" t="n">
-        <v>40.6</v>
+        <v>39.6</v>
       </c>
       <c r="F15" t="n">
         <v>0.1</v>
       </c>
       <c r="G15" t="n">
-        <v>59.6</v>
+        <v>61.1</v>
       </c>
       <c r="H15" t="n">
-        <v>58.4</v>
+        <v>60.7</v>
       </c>
       <c r="I15" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J15" t="n">
         <v>0.9</v>
@@ -1071,39 +1071,39 @@
         <v>0.9</v>
       </c>
       <c r="M15" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B16" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C16" t="n">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D16" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="E16" t="n">
-        <v>36.9</v>
+        <v>39.8</v>
       </c>
       <c r="F16" t="n">
         <v>0.1</v>
       </c>
       <c r="G16" t="n">
+        <v>59.4</v>
+      </c>
+      <c r="H16" t="n">
         <v>60.6</v>
       </c>
-      <c r="H16" t="n">
-        <v>60.5</v>
-      </c>
       <c r="I16" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J16" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="K16" t="n">
         <v>0.4</v>
@@ -1112,39 +1112,39 @@
         <v>0.9</v>
       </c>
       <c r="M16" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B17" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C17" t="n">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D17" t="n">
         <v>0.6</v>
       </c>
       <c r="E17" t="n">
-        <v>39.2</v>
+        <v>39.6</v>
       </c>
       <c r="F17" t="n">
         <v>0.1</v>
       </c>
       <c r="G17" t="n">
-        <v>59.1</v>
+        <v>59.2</v>
       </c>
       <c r="H17" t="n">
-        <v>62</v>
+        <v>59.7</v>
       </c>
       <c r="I17" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="J17" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="K17" t="n">
         <v>0.4</v>
@@ -1153,36 +1153,36 @@
         <v>0.9</v>
       </c>
       <c r="M17" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B18" t="n">
         <v>28</v>
       </c>
       <c r="C18" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D18" t="n">
         <v>0.6</v>
       </c>
       <c r="E18" t="n">
-        <v>36.7</v>
+        <v>41.1</v>
       </c>
       <c r="F18" t="n">
         <v>0.1</v>
       </c>
       <c r="G18" t="n">
-        <v>57.8</v>
+        <v>60.1</v>
       </c>
       <c r="H18" t="n">
-        <v>60.2</v>
+        <v>59.9</v>
       </c>
       <c r="I18" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J18" t="n">
         <v>0.9</v>
@@ -1194,39 +1194,39 @@
         <v>0.9</v>
       </c>
       <c r="M18" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B19" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C19" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D19" t="n">
         <v>0.6</v>
       </c>
       <c r="E19" t="n">
-        <v>41.9</v>
+        <v>39.3</v>
       </c>
       <c r="F19" t="n">
         <v>0.1</v>
       </c>
       <c r="G19" t="n">
-        <v>60</v>
+        <v>60.3</v>
       </c>
       <c r="H19" t="n">
-        <v>56.9</v>
+        <v>58.6</v>
       </c>
       <c r="I19" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J19" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="K19" t="n">
         <v>0.4</v>
@@ -1240,10 +1240,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B20" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C20" t="n">
         <v>71</v>
@@ -1252,19 +1252,19 @@
         <v>0.6</v>
       </c>
       <c r="E20" t="n">
-        <v>40.5</v>
+        <v>39.9</v>
       </c>
       <c r="F20" t="n">
         <v>0.1</v>
       </c>
       <c r="G20" t="n">
+        <v>62.2</v>
+      </c>
+      <c r="H20" t="n">
         <v>59.8</v>
       </c>
-      <c r="H20" t="n">
-        <v>60.6</v>
-      </c>
       <c r="I20" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J20" t="n">
         <v>0.9</v>
@@ -1276,39 +1276,39 @@
         <v>0.9</v>
       </c>
       <c r="M20" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B21" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C21" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D21" t="n">
         <v>0.6</v>
       </c>
       <c r="E21" t="n">
-        <v>37.5</v>
+        <v>39.2</v>
       </c>
       <c r="F21" t="n">
         <v>0.1</v>
       </c>
       <c r="G21" t="n">
-        <v>58.9</v>
+        <v>60.8</v>
       </c>
       <c r="H21" t="n">
-        <v>59.7</v>
+        <v>61</v>
       </c>
       <c r="I21" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J21" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="K21" t="n">
         <v>0.4</v>
@@ -1317,39 +1317,39 @@
         <v>0.9</v>
       </c>
       <c r="M21" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B22" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C22" t="n">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D22" t="n">
         <v>0.6</v>
       </c>
       <c r="E22" t="n">
-        <v>40.3</v>
+        <v>40.4</v>
       </c>
       <c r="F22" t="n">
         <v>0.1</v>
       </c>
       <c r="G22" t="n">
-        <v>50.3</v>
+        <v>50.4</v>
       </c>
       <c r="H22" t="n">
-        <v>52</v>
+        <v>50.5</v>
       </c>
       <c r="I22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J22" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="K22" t="n">
         <v>0.4</v>
@@ -1358,39 +1358,39 @@
         <v>0.9</v>
       </c>
       <c r="M22" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B23" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C23" t="n">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D23" t="n">
         <v>0.6</v>
       </c>
       <c r="E23" t="n">
-        <v>41.9</v>
+        <v>39.9</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="G23" t="n">
-        <v>51.7</v>
+        <v>51</v>
       </c>
       <c r="H23" t="n">
-        <v>51.9</v>
+        <v>50</v>
       </c>
       <c r="I23" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="J23" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="K23" t="n">
         <v>0.4</v>
@@ -1399,7 +1399,7 @@
         <v>0.9</v>
       </c>
       <c r="M23" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24">
@@ -1407,28 +1407,28 @@
         <v>62</v>
       </c>
       <c r="B24" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C24" t="n">
         <v>71</v>
       </c>
       <c r="D24" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="E24" t="n">
-        <v>42.2</v>
+        <v>41</v>
       </c>
       <c r="F24" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="G24" t="n">
         <v>50.8</v>
       </c>
       <c r="H24" t="n">
-        <v>51.1</v>
+        <v>52.8</v>
       </c>
       <c r="I24" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J24" t="n">
         <v>0.8</v>
@@ -1440,36 +1440,36 @@
         <v>0.9</v>
       </c>
       <c r="M24" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B25" t="n">
         <v>29</v>
       </c>
       <c r="C25" t="n">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D25" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="E25" t="n">
-        <v>40.7</v>
+        <v>41.6</v>
       </c>
       <c r="F25" t="n">
         <v>0.2</v>
       </c>
       <c r="G25" t="n">
-        <v>51.3</v>
+        <v>51.8</v>
       </c>
       <c r="H25" t="n">
-        <v>51.8</v>
+        <v>51.2</v>
       </c>
       <c r="I25" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="J25" t="n">
         <v>0.9</v>
@@ -1481,7 +1481,7 @@
         <v>0.9</v>
       </c>
       <c r="M25" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26">
@@ -1489,31 +1489,31 @@
         <v>62</v>
       </c>
       <c r="B26" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C26" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D26" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="E26" t="n">
-        <v>35.7</v>
+        <v>40.6</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="G26" t="n">
-        <v>49.9</v>
+        <v>52.5</v>
       </c>
       <c r="H26" t="n">
-        <v>51.5</v>
+        <v>53.3</v>
       </c>
       <c r="I26" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J26" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="K26" t="n">
         <v>0.4</v>
@@ -1522,39 +1522,39 @@
         <v>0.9</v>
       </c>
       <c r="M26" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B27" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C27" t="n">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D27" t="n">
         <v>0.6</v>
       </c>
       <c r="E27" t="n">
-        <v>35.6</v>
+        <v>39.3</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="G27" t="n">
-        <v>51.1</v>
+        <v>52</v>
       </c>
       <c r="H27" t="n">
-        <v>49.5</v>
+        <v>52.7</v>
       </c>
       <c r="I27" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="J27" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="K27" t="n">
         <v>0.4</v>
@@ -1563,7 +1563,7 @@
         <v>0.9</v>
       </c>
       <c r="M27" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28">
@@ -1571,28 +1571,28 @@
         <v>63</v>
       </c>
       <c r="B28" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C28" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D28" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="E28" t="n">
-        <v>38.8</v>
+        <v>39.1</v>
       </c>
       <c r="F28" t="n">
         <v>0.2</v>
       </c>
       <c r="G28" t="n">
-        <v>50.5</v>
+        <v>50</v>
       </c>
       <c r="H28" t="n">
-        <v>50.5</v>
+        <v>52.2</v>
       </c>
       <c r="I28" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="J28" t="n">
         <v>0.9</v>
@@ -1604,7 +1604,7 @@
         <v>0.9</v>
       </c>
       <c r="M28" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29">
@@ -1612,28 +1612,28 @@
         <v>61</v>
       </c>
       <c r="B29" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C29" t="n">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D29" t="n">
         <v>0.6</v>
       </c>
       <c r="E29" t="n">
-        <v>41.1</v>
+        <v>39</v>
       </c>
       <c r="F29" t="n">
         <v>0.1</v>
       </c>
       <c r="G29" t="n">
-        <v>52.9</v>
+        <v>50.4</v>
       </c>
       <c r="H29" t="n">
-        <v>53</v>
+        <v>51.8</v>
       </c>
       <c r="I29" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="J29" t="n">
         <v>0.8</v>
@@ -1645,48 +1645,48 @@
         <v>0.9</v>
       </c>
       <c r="M29" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>69</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E30" t="n">
+        <v>41.4</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G30" t="n">
+        <v>51.2</v>
+      </c>
+      <c r="H30" t="n">
+        <v>50.5</v>
+      </c>
+      <c r="I30" t="n">
+        <v>13</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="M30" t="n">
         <v>29</v>
-      </c>
-      <c r="C30" t="n">
-        <v>72</v>
-      </c>
-      <c r="D30" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="E30" t="n">
-        <v>40.1</v>
-      </c>
-      <c r="F30" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G30" t="n">
-        <v>51.7</v>
-      </c>
-      <c r="H30" t="n">
-        <v>52.5</v>
-      </c>
-      <c r="I30" t="n">
-        <v>3</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="M30" t="n">
-        <v>28</v>
       </c>
     </row>
     <row r="31">
@@ -1694,28 +1694,28 @@
         <v>62</v>
       </c>
       <c r="B31" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C31" t="n">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D31" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="E31" t="n">
-        <v>37.3</v>
+        <v>41.9</v>
       </c>
       <c r="F31" t="n">
         <v>0.1</v>
       </c>
       <c r="G31" t="n">
-        <v>50.3</v>
+        <v>50.9</v>
       </c>
       <c r="H31" t="n">
-        <v>54.4</v>
+        <v>49.8</v>
       </c>
       <c r="I31" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="J31" t="n">
         <v>0.8</v>
@@ -1727,36 +1727,36 @@
         <v>0.9</v>
       </c>
       <c r="M31" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B32" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C32" t="n">
         <v>73</v>
       </c>
       <c r="D32" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="E32" t="n">
-        <v>35.7</v>
+        <v>37.9</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="G32" t="n">
-        <v>51.2</v>
+        <v>51.7</v>
       </c>
       <c r="H32" t="n">
-        <v>52.6</v>
+        <v>52.9</v>
       </c>
       <c r="I32" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="J32" t="n">
         <v>0.8</v>
@@ -1773,10 +1773,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B33" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C33" t="n">
         <v>69</v>
@@ -1785,22 +1785,22 @@
         <v>0.6</v>
       </c>
       <c r="E33" t="n">
-        <v>40.5</v>
+        <v>42</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="G33" t="n">
-        <v>51.1</v>
+        <v>52.6</v>
       </c>
       <c r="H33" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I33" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="J33" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="K33" t="n">
         <v>0.4</v>
@@ -1809,39 +1809,39 @@
         <v>0.9</v>
       </c>
       <c r="M33" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B34" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C34" t="n">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D34" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="E34" t="n">
-        <v>41.2</v>
+        <v>39.8</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="G34" t="n">
-        <v>51.1</v>
+        <v>51.4</v>
       </c>
       <c r="H34" t="n">
-        <v>51.7</v>
+        <v>52</v>
       </c>
       <c r="I34" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J34" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="K34" t="n">
         <v>0.4</v>
@@ -1850,39 +1850,39 @@
         <v>0.9</v>
       </c>
       <c r="M34" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B35" t="n">
         <v>28</v>
       </c>
       <c r="C35" t="n">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D35" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="E35" t="n">
-        <v>35.4</v>
+        <v>41.3</v>
       </c>
       <c r="F35" t="n">
         <v>0.2</v>
       </c>
       <c r="G35" t="n">
-        <v>52.2</v>
+        <v>51.5</v>
       </c>
       <c r="H35" t="n">
-        <v>51.7</v>
+        <v>52.3</v>
       </c>
       <c r="I35" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="J35" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="K35" t="n">
         <v>0.4</v>
@@ -1891,39 +1891,39 @@
         <v>0.9</v>
       </c>
       <c r="M35" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B36" t="n">
         <v>28</v>
       </c>
       <c r="C36" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D36" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="E36" t="n">
-        <v>42.2</v>
+        <v>40</v>
       </c>
       <c r="F36" t="n">
         <v>0.2</v>
       </c>
       <c r="G36" t="n">
-        <v>49.9</v>
+        <v>51.8</v>
       </c>
       <c r="H36" t="n">
-        <v>51.3</v>
+        <v>51.4</v>
       </c>
       <c r="I36" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J36" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="K36" t="n">
         <v>0.4</v>
@@ -1932,36 +1932,36 @@
         <v>0.9</v>
       </c>
       <c r="M36" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B37" t="n">
         <v>29</v>
       </c>
       <c r="C37" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D37" t="n">
         <v>0.6</v>
       </c>
       <c r="E37" t="n">
-        <v>40.2</v>
+        <v>40.3</v>
       </c>
       <c r="F37" t="n">
         <v>0.2</v>
       </c>
       <c r="G37" t="n">
-        <v>50.5</v>
+        <v>51.1</v>
       </c>
       <c r="H37" t="n">
-        <v>53</v>
+        <v>51.1</v>
       </c>
       <c r="I37" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J37" t="n">
         <v>0.8</v>
@@ -1973,39 +1973,39 @@
         <v>0.9</v>
       </c>
       <c r="M37" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B38" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C38" t="n">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D38" t="n">
         <v>0.6</v>
       </c>
       <c r="E38" t="n">
-        <v>40.9</v>
+        <v>40.1</v>
       </c>
       <c r="F38" t="n">
         <v>0.2</v>
       </c>
       <c r="G38" t="n">
-        <v>52.1</v>
+        <v>49.2</v>
       </c>
       <c r="H38" t="n">
-        <v>51.2</v>
+        <v>51.6</v>
       </c>
       <c r="I38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J38" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="K38" t="n">
         <v>0.4</v>
@@ -2014,39 +2014,39 @@
         <v>0.9</v>
       </c>
       <c r="M38" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B39" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C39" t="n">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D39" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="E39" t="n">
-        <v>38.3</v>
+        <v>37.1</v>
       </c>
       <c r="F39" t="n">
         <v>0.1</v>
       </c>
       <c r="G39" t="n">
-        <v>50.1</v>
+        <v>52.5</v>
       </c>
       <c r="H39" t="n">
-        <v>50.5</v>
+        <v>53.1</v>
       </c>
       <c r="I39" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="J39" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="K39" t="n">
         <v>0.4</v>
@@ -2055,15 +2055,15 @@
         <v>0.9</v>
       </c>
       <c r="M39" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B40" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C40" t="n">
         <v>74</v>
@@ -2072,19 +2072,19 @@
         <v>0.6</v>
       </c>
       <c r="E40" t="n">
-        <v>41.3</v>
+        <v>42.7</v>
       </c>
       <c r="F40" t="n">
         <v>0.2</v>
       </c>
       <c r="G40" t="n">
-        <v>50.8</v>
+        <v>52</v>
       </c>
       <c r="H40" t="n">
-        <v>52.5</v>
+        <v>52.1</v>
       </c>
       <c r="I40" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J40" t="n">
         <v>0.8</v>
@@ -2096,36 +2096,36 @@
         <v>0.9</v>
       </c>
       <c r="M40" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B41" t="n">
         <v>27</v>
       </c>
       <c r="C41" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D41" t="n">
         <v>0.6</v>
       </c>
       <c r="E41" t="n">
-        <v>40.5</v>
+        <v>43.4</v>
       </c>
       <c r="F41" t="n">
         <v>0.1</v>
       </c>
       <c r="G41" t="n">
-        <v>52.3</v>
+        <v>50.7</v>
       </c>
       <c r="H41" t="n">
-        <v>51.8</v>
+        <v>51.7</v>
       </c>
       <c r="I41" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="J41" t="n">
         <v>0.9</v>
@@ -2137,36 +2137,36 @@
         <v>0.9</v>
       </c>
       <c r="M41" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B42" t="n">
         <v>27</v>
       </c>
       <c r="C42" t="n">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D42" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="E42" t="n">
-        <v>40.4</v>
+        <v>40.1</v>
       </c>
       <c r="F42" t="n">
         <v>0.1</v>
       </c>
       <c r="G42" t="n">
-        <v>76.5</v>
+        <v>77</v>
       </c>
       <c r="H42" t="n">
-        <v>76.59999999999999</v>
+        <v>78.3</v>
       </c>
       <c r="I42" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="J42" t="n">
         <v>0.9</v>
@@ -2183,31 +2183,31 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B43" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C43" t="n">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D43" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="E43" t="n">
-        <v>38</v>
+        <v>41.5</v>
       </c>
       <c r="F43" t="n">
         <v>0.1</v>
       </c>
       <c r="G43" t="n">
-        <v>77.09999999999999</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="H43" t="n">
-        <v>77.59999999999999</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="I43" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="J43" t="n">
         <v>0.9</v>
@@ -2224,34 +2224,34 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B44" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C44" t="n">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D44" t="n">
         <v>0.6</v>
       </c>
       <c r="E44" t="n">
-        <v>40.2</v>
+        <v>38.4</v>
       </c>
       <c r="F44" t="n">
         <v>0.1</v>
       </c>
       <c r="G44" t="n">
-        <v>78.09999999999999</v>
+        <v>77.3</v>
       </c>
       <c r="H44" t="n">
-        <v>76.8</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="I44" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J44" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="K44" t="n">
         <v>0.4</v>
@@ -2260,7 +2260,7 @@
         <v>0.9</v>
       </c>
       <c r="M44" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45">
@@ -2268,7 +2268,7 @@
         <v>76</v>
       </c>
       <c r="B45" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C45" t="n">
         <v>72</v>
@@ -2277,22 +2277,22 @@
         <v>0.6</v>
       </c>
       <c r="E45" t="n">
-        <v>40.8</v>
+        <v>40.7</v>
       </c>
       <c r="F45" t="n">
         <v>0.1</v>
       </c>
       <c r="G45" t="n">
-        <v>76.59999999999999</v>
+        <v>77.8</v>
       </c>
       <c r="H45" t="n">
-        <v>76.7</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="I45" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="J45" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="K45" t="n">
         <v>0.4</v>
@@ -2301,36 +2301,36 @@
         <v>0.9</v>
       </c>
       <c r="M45" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B46" t="n">
         <v>29</v>
       </c>
       <c r="C46" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D46" t="n">
         <v>0.6</v>
       </c>
       <c r="E46" t="n">
-        <v>39.5</v>
+        <v>36.5</v>
       </c>
       <c r="F46" t="n">
         <v>0.1</v>
       </c>
       <c r="G46" t="n">
-        <v>75.3</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="H46" t="n">
-        <v>76.3</v>
+        <v>78.5</v>
       </c>
       <c r="I46" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J46" t="n">
         <v>0.8</v>
@@ -2342,7 +2342,7 @@
         <v>0.9</v>
       </c>
       <c r="M46" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47">
@@ -2350,31 +2350,31 @@
         <v>77</v>
       </c>
       <c r="B47" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C47" t="n">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D47" t="n">
         <v>0.6</v>
       </c>
       <c r="E47" t="n">
-        <v>38.2</v>
+        <v>41.5</v>
       </c>
       <c r="F47" t="n">
         <v>0.1</v>
       </c>
       <c r="G47" t="n">
-        <v>77.09999999999999</v>
+        <v>78.2</v>
       </c>
       <c r="H47" t="n">
-        <v>75.09999999999999</v>
+        <v>75.7</v>
       </c>
       <c r="I47" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J47" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="K47" t="n">
         <v>0.4</v>
@@ -2383,36 +2383,36 @@
         <v>0.9</v>
       </c>
       <c r="M47" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B48" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C48" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D48" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="E48" t="n">
-        <v>38.3</v>
+        <v>43.5</v>
       </c>
       <c r="F48" t="n">
         <v>0.1</v>
       </c>
       <c r="G48" t="n">
-        <v>76.7</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="H48" t="n">
-        <v>76.90000000000001</v>
+        <v>78.3</v>
       </c>
       <c r="I48" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J48" t="n">
         <v>0.8</v>
@@ -2424,36 +2424,36 @@
         <v>0.9</v>
       </c>
       <c r="M48" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B49" t="n">
         <v>28</v>
       </c>
       <c r="C49" t="n">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D49" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="E49" t="n">
-        <v>38.9</v>
+        <v>38.2</v>
       </c>
       <c r="F49" t="n">
         <v>0.1</v>
       </c>
       <c r="G49" t="n">
-        <v>76.59999999999999</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="H49" t="n">
-        <v>75.09999999999999</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="I49" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="J49" t="n">
         <v>0.9</v>
@@ -2465,36 +2465,36 @@
         <v>0.9</v>
       </c>
       <c r="M49" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B50" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C50" t="n">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D50" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="E50" t="n">
-        <v>36.8</v>
+        <v>39.5</v>
       </c>
       <c r="F50" t="n">
         <v>0.1</v>
       </c>
       <c r="G50" t="n">
-        <v>76.90000000000001</v>
+        <v>77.2</v>
       </c>
       <c r="H50" t="n">
-        <v>76.5</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="I50" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J50" t="n">
         <v>0.9</v>
@@ -2506,39 +2506,39 @@
         <v>0.9</v>
       </c>
       <c r="M50" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B51" t="n">
         <v>28</v>
       </c>
       <c r="C51" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D51" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="E51" t="n">
-        <v>39.2</v>
+        <v>41.9</v>
       </c>
       <c r="F51" t="n">
         <v>0.1</v>
       </c>
       <c r="G51" t="n">
-        <v>76.3</v>
+        <v>75.8</v>
       </c>
       <c r="H51" t="n">
-        <v>79.2</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="I51" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="J51" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="K51" t="n">
         <v>0.4</v>
@@ -2547,7 +2547,7 @@
         <v>0.9</v>
       </c>
       <c r="M51" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="52">
@@ -2558,25 +2558,25 @@
         <v>29</v>
       </c>
       <c r="C52" t="n">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D52" t="n">
         <v>0.6</v>
       </c>
       <c r="E52" t="n">
-        <v>39.8</v>
+        <v>39.2</v>
       </c>
       <c r="F52" t="n">
         <v>0.1</v>
       </c>
       <c r="G52" t="n">
-        <v>77.5</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="H52" t="n">
-        <v>77.2</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="I52" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J52" t="n">
         <v>0.8</v>
@@ -2593,34 +2593,34 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B53" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C53" t="n">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D53" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="E53" t="n">
-        <v>36</v>
+        <v>38.2</v>
       </c>
       <c r="F53" t="n">
         <v>0.1</v>
       </c>
       <c r="G53" t="n">
-        <v>77.59999999999999</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="H53" t="n">
-        <v>75.40000000000001</v>
+        <v>76.3</v>
       </c>
       <c r="I53" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="J53" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="K53" t="n">
         <v>0.4</v>
@@ -2629,7 +2629,7 @@
         <v>0.9</v>
       </c>
       <c r="M53" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="54">
@@ -2637,28 +2637,28 @@
         <v>77</v>
       </c>
       <c r="B54" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C54" t="n">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D54" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="E54" t="n">
-        <v>38.5</v>
+        <v>41</v>
       </c>
       <c r="F54" t="n">
         <v>0.1</v>
       </c>
       <c r="G54" t="n">
-        <v>76</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="H54" t="n">
-        <v>75.7</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="I54" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J54" t="n">
         <v>0.8</v>
@@ -2681,28 +2681,28 @@
         <v>28</v>
       </c>
       <c r="C55" t="n">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D55" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="E55" t="n">
-        <v>38.5</v>
+        <v>40.5</v>
       </c>
       <c r="F55" t="n">
         <v>0.1</v>
       </c>
       <c r="G55" t="n">
-        <v>76.5</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="H55" t="n">
-        <v>76.5</v>
+        <v>77.7</v>
       </c>
       <c r="I55" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J55" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="K55" t="n">
         <v>0.4</v>
@@ -2716,31 +2716,31 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B56" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C56" t="n">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D56" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="E56" t="n">
-        <v>39.6</v>
+        <v>39.9</v>
       </c>
       <c r="F56" t="n">
         <v>0.1</v>
       </c>
       <c r="G56" t="n">
-        <v>77.90000000000001</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="H56" t="n">
-        <v>77.40000000000001</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="I56" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="J56" t="n">
         <v>0.8</v>
@@ -2752,7 +2752,7 @@
         <v>0.9</v>
       </c>
       <c r="M56" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57">
@@ -2760,28 +2760,28 @@
         <v>76</v>
       </c>
       <c r="B57" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C57" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D57" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="E57" t="n">
-        <v>38.1</v>
+        <v>41.9</v>
       </c>
       <c r="F57" t="n">
         <v>0.1</v>
       </c>
       <c r="G57" t="n">
-        <v>76.8</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="H57" t="n">
-        <v>78.09999999999999</v>
+        <v>79.3</v>
       </c>
       <c r="I57" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J57" t="n">
         <v>0.8</v>
@@ -2793,36 +2793,36 @@
         <v>0.9</v>
       </c>
       <c r="M57" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B58" t="n">
         <v>27</v>
       </c>
       <c r="C58" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D58" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="E58" t="n">
-        <v>41.9</v>
+        <v>39.1</v>
       </c>
       <c r="F58" t="n">
         <v>0.1</v>
       </c>
       <c r="G58" t="n">
-        <v>73.5</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="H58" t="n">
-        <v>77</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="I58" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J58" t="n">
         <v>0.9</v>
@@ -2834,39 +2834,39 @@
         <v>0.9</v>
       </c>
       <c r="M58" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B59" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C59" t="n">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D59" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="E59" t="n">
-        <v>39.1</v>
+        <v>37.5</v>
       </c>
       <c r="F59" t="n">
         <v>0.1</v>
       </c>
       <c r="G59" t="n">
-        <v>75.3</v>
+        <v>76.5</v>
       </c>
       <c r="H59" t="n">
-        <v>78.2</v>
+        <v>75.5</v>
       </c>
       <c r="I59" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J59" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="K59" t="n">
         <v>0.4</v>
@@ -2886,22 +2886,22 @@
         <v>28</v>
       </c>
       <c r="C60" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D60" t="n">
         <v>0.6</v>
       </c>
       <c r="E60" t="n">
-        <v>38.1</v>
+        <v>41.6</v>
       </c>
       <c r="F60" t="n">
         <v>0.1</v>
       </c>
       <c r="G60" t="n">
-        <v>76.09999999999999</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="H60" t="n">
-        <v>77.09999999999999</v>
+        <v>78.5</v>
       </c>
       <c r="I60" t="n">
         <v>14</v>
@@ -2916,39 +2916,39 @@
         <v>0.9</v>
       </c>
       <c r="M60" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B61" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C61" t="n">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D61" t="n">
         <v>0.6</v>
       </c>
       <c r="E61" t="n">
-        <v>37.9</v>
+        <v>41.1</v>
       </c>
       <c r="F61" t="n">
         <v>0.1</v>
       </c>
       <c r="G61" t="n">
-        <v>78.5</v>
+        <v>77.7</v>
       </c>
       <c r="H61" t="n">
-        <v>78.2</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="I61" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J61" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="K61" t="n">
         <v>0.4</v>
@@ -2957,36 +2957,36 @@
         <v>0.9</v>
       </c>
       <c r="M61" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C62" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D62" t="n">
         <v>0.5</v>
       </c>
       <c r="E62" t="n">
-        <v>43.3</v>
+        <v>39.9</v>
       </c>
       <c r="F62" t="n">
         <v>0.1</v>
       </c>
       <c r="G62" t="n">
-        <v>61.9</v>
+        <v>60.9</v>
       </c>
       <c r="H62" t="n">
-        <v>59.3</v>
+        <v>59.9</v>
       </c>
       <c r="I62" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J62" t="n">
         <v>0.9</v>
@@ -2998,36 +2998,36 @@
         <v>0.9</v>
       </c>
       <c r="M62" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B63" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C63" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D63" t="n">
         <v>0.6</v>
       </c>
       <c r="E63" t="n">
-        <v>37.6</v>
+        <v>38.8</v>
       </c>
       <c r="F63" t="n">
         <v>0.1</v>
       </c>
       <c r="G63" t="n">
-        <v>58</v>
+        <v>60.6</v>
       </c>
       <c r="H63" t="n">
-        <v>60.6</v>
+        <v>60.1</v>
       </c>
       <c r="I63" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J63" t="n">
         <v>0.9</v>
@@ -3039,7 +3039,7 @@
         <v>0.9</v>
       </c>
       <c r="M63" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64">
@@ -3050,28 +3050,28 @@
         <v>29</v>
       </c>
       <c r="C64" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D64" t="n">
         <v>0.5</v>
       </c>
       <c r="E64" t="n">
-        <v>40.1</v>
+        <v>42.5</v>
       </c>
       <c r="F64" t="n">
         <v>0.1</v>
       </c>
       <c r="G64" t="n">
-        <v>59</v>
+        <v>62.2</v>
       </c>
       <c r="H64" t="n">
-        <v>58.2</v>
+        <v>60.4</v>
       </c>
       <c r="I64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J64" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="K64" t="n">
         <v>0.4</v>
@@ -3080,15 +3080,15 @@
         <v>0.9</v>
       </c>
       <c r="M64" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B65" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C65" t="n">
         <v>73</v>
@@ -3097,7 +3097,7 @@
         <v>0.6</v>
       </c>
       <c r="E65" t="n">
-        <v>41.9</v>
+        <v>37.3</v>
       </c>
       <c r="F65" t="n">
         <v>0.1</v>
@@ -3106,13 +3106,13 @@
         <v>60</v>
       </c>
       <c r="H65" t="n">
-        <v>60.7</v>
+        <v>59.1</v>
       </c>
       <c r="I65" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="J65" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="K65" t="n">
         <v>0.4</v>
@@ -3121,36 +3121,36 @@
         <v>0.9</v>
       </c>
       <c r="M65" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B66" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C66" t="n">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D66" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="E66" t="n">
-        <v>41</v>
+        <v>40.5</v>
       </c>
       <c r="F66" t="n">
         <v>0.1</v>
       </c>
       <c r="G66" t="n">
-        <v>58.6</v>
+        <v>59.5</v>
       </c>
       <c r="H66" t="n">
-        <v>61</v>
+        <v>60.3</v>
       </c>
       <c r="I66" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J66" t="n">
         <v>0.9</v>
@@ -3162,7 +3162,7 @@
         <v>0.9</v>
       </c>
       <c r="M66" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="67">
@@ -3173,28 +3173,28 @@
         <v>28</v>
       </c>
       <c r="C67" t="n">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D67" t="n">
         <v>0.6</v>
       </c>
       <c r="E67" t="n">
-        <v>42</v>
+        <v>41.2</v>
       </c>
       <c r="F67" t="n">
         <v>0.1</v>
       </c>
       <c r="G67" t="n">
-        <v>61.5</v>
+        <v>59.5</v>
       </c>
       <c r="H67" t="n">
-        <v>60.5</v>
+        <v>60.7</v>
       </c>
       <c r="I67" t="n">
         <v>10</v>
       </c>
       <c r="J67" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="K67" t="n">
         <v>0.4</v>
@@ -3203,36 +3203,36 @@
         <v>0.9</v>
       </c>
       <c r="M67" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B68" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C68" t="n">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="D68" t="n">
         <v>0.5</v>
       </c>
       <c r="E68" t="n">
-        <v>38.9</v>
+        <v>41.1</v>
       </c>
       <c r="F68" t="n">
         <v>0.1</v>
       </c>
       <c r="G68" t="n">
-        <v>59.3</v>
+        <v>58.9</v>
       </c>
       <c r="H68" t="n">
-        <v>60.9</v>
+        <v>60.1</v>
       </c>
       <c r="I68" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J68" t="n">
         <v>0.8</v>
@@ -3244,7 +3244,7 @@
         <v>0.9</v>
       </c>
       <c r="M68" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="69">
@@ -3255,25 +3255,25 @@
         <v>29</v>
       </c>
       <c r="C69" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D69" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="E69" t="n">
-        <v>39.5</v>
+        <v>40</v>
       </c>
       <c r="F69" t="n">
         <v>0.1</v>
       </c>
       <c r="G69" t="n">
-        <v>59.4</v>
+        <v>58.1</v>
       </c>
       <c r="H69" t="n">
-        <v>59.5</v>
+        <v>58.8</v>
       </c>
       <c r="I69" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J69" t="n">
         <v>0.9</v>
@@ -3285,36 +3285,36 @@
         <v>0.9</v>
       </c>
       <c r="M69" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B70" t="n">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C70" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D70" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="E70" t="n">
-        <v>39.3</v>
+        <v>40.1</v>
       </c>
       <c r="F70" t="n">
         <v>0.1</v>
       </c>
       <c r="G70" t="n">
-        <v>58.8</v>
+        <v>59.1</v>
       </c>
       <c r="H70" t="n">
-        <v>60.1</v>
+        <v>59.1</v>
       </c>
       <c r="I70" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J70" t="n">
         <v>0.9</v>
@@ -3326,36 +3326,36 @@
         <v>0.9</v>
       </c>
       <c r="M70" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B71" t="n">
         <v>27</v>
       </c>
       <c r="C71" t="n">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D71" t="n">
         <v>0.6</v>
       </c>
       <c r="E71" t="n">
-        <v>40.2</v>
+        <v>38.4</v>
       </c>
       <c r="F71" t="n">
         <v>0.1</v>
       </c>
       <c r="G71" t="n">
-        <v>61.4</v>
+        <v>60</v>
       </c>
       <c r="H71" t="n">
-        <v>59.9</v>
+        <v>60.4</v>
       </c>
       <c r="I71" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="J71" t="n">
         <v>0.8</v>
@@ -3367,36 +3367,36 @@
         <v>0.9</v>
       </c>
       <c r="M71" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B72" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C72" t="n">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D72" t="n">
         <v>0.6</v>
       </c>
       <c r="E72" t="n">
-        <v>43</v>
+        <v>41.7</v>
       </c>
       <c r="F72" t="n">
         <v>0.1</v>
       </c>
       <c r="G72" t="n">
-        <v>60.2</v>
+        <v>59</v>
       </c>
       <c r="H72" t="n">
-        <v>58.7</v>
+        <v>60.9</v>
       </c>
       <c r="I72" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="J72" t="n">
         <v>0.8</v>
@@ -3408,7 +3408,7 @@
         <v>0.9</v>
       </c>
       <c r="M72" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="73">
@@ -3416,31 +3416,31 @@
         <v>59</v>
       </c>
       <c r="B73" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C73" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D73" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="E73" t="n">
-        <v>36.8</v>
+        <v>42.9</v>
       </c>
       <c r="F73" t="n">
         <v>0.1</v>
       </c>
       <c r="G73" t="n">
-        <v>59.5</v>
+        <v>60.9</v>
       </c>
       <c r="H73" t="n">
-        <v>59.6</v>
+        <v>60.9</v>
       </c>
       <c r="I73" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="J73" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="K73" t="n">
         <v>0.4</v>
@@ -3449,7 +3449,7 @@
         <v>0.9</v>
       </c>
       <c r="M73" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="74">
@@ -3457,31 +3457,31 @@
         <v>59</v>
       </c>
       <c r="B74" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C74" t="n">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D74" t="n">
         <v>0.6</v>
       </c>
       <c r="E74" t="n">
-        <v>42.2</v>
+        <v>38.6</v>
       </c>
       <c r="F74" t="n">
         <v>0.1</v>
       </c>
       <c r="G74" t="n">
-        <v>58.1</v>
+        <v>59</v>
       </c>
       <c r="H74" t="n">
-        <v>59.9</v>
+        <v>59.3</v>
       </c>
       <c r="I74" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J74" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="K74" t="n">
         <v>0.4</v>
@@ -3490,7 +3490,7 @@
         <v>0.9</v>
       </c>
       <c r="M74" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75">
@@ -3498,25 +3498,25 @@
         <v>59</v>
       </c>
       <c r="B75" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C75" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D75" t="n">
         <v>0.6</v>
       </c>
       <c r="E75" t="n">
-        <v>38.5</v>
+        <v>38.2</v>
       </c>
       <c r="F75" t="n">
         <v>0.1</v>
       </c>
       <c r="G75" t="n">
-        <v>60.6</v>
+        <v>60.7</v>
       </c>
       <c r="H75" t="n">
-        <v>59.4</v>
+        <v>61.2</v>
       </c>
       <c r="I75" t="n">
         <v>8</v>
@@ -3531,7 +3531,7 @@
         <v>0.9</v>
       </c>
       <c r="M75" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="76">
@@ -3542,25 +3542,25 @@
         <v>29</v>
       </c>
       <c r="C76" t="n">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D76" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="E76" t="n">
-        <v>42.2</v>
+        <v>40.4</v>
       </c>
       <c r="F76" t="n">
         <v>0.1</v>
       </c>
       <c r="G76" t="n">
-        <v>59.4</v>
+        <v>60.2</v>
       </c>
       <c r="H76" t="n">
-        <v>59.2</v>
+        <v>58.5</v>
       </c>
       <c r="I76" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J76" t="n">
         <v>0.8</v>
@@ -3572,7 +3572,7 @@
         <v>0.9</v>
       </c>
       <c r="M76" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="77">
@@ -3580,28 +3580,28 @@
         <v>60</v>
       </c>
       <c r="B77" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C77" t="n">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D77" t="n">
         <v>0.5</v>
       </c>
       <c r="E77" t="n">
-        <v>37.9</v>
+        <v>39.1</v>
       </c>
       <c r="F77" t="n">
         <v>0.1</v>
       </c>
       <c r="G77" t="n">
-        <v>59.2</v>
+        <v>60.1</v>
       </c>
       <c r="H77" t="n">
-        <v>59.5</v>
+        <v>59.8</v>
       </c>
       <c r="I77" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="J77" t="n">
         <v>0.8</v>
@@ -3613,24 +3613,24 @@
         <v>0.9</v>
       </c>
       <c r="M77" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B78" t="n">
         <v>27</v>
       </c>
       <c r="C78" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D78" t="n">
         <v>0.6</v>
       </c>
       <c r="E78" t="n">
-        <v>42.4</v>
+        <v>42.5</v>
       </c>
       <c r="F78" t="n">
         <v>0.1</v>
@@ -3639,13 +3639,13 @@
         <v>59.9</v>
       </c>
       <c r="H78" t="n">
-        <v>59.1</v>
+        <v>60.1</v>
       </c>
       <c r="I78" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J78" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="K78" t="n">
         <v>0.4</v>
@@ -3654,7 +3654,7 @@
         <v>0.9</v>
       </c>
       <c r="M78" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="79">
@@ -3662,31 +3662,31 @@
         <v>61</v>
       </c>
       <c r="B79" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C79" t="n">
         <v>73</v>
       </c>
       <c r="D79" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="E79" t="n">
-        <v>40.9</v>
+        <v>39.1</v>
       </c>
       <c r="F79" t="n">
         <v>0.1</v>
       </c>
       <c r="G79" t="n">
-        <v>57.9</v>
+        <v>61.3</v>
       </c>
       <c r="H79" t="n">
-        <v>60.6</v>
+        <v>59.5</v>
       </c>
       <c r="I79" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="J79" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="K79" t="n">
         <v>0.4</v>
@@ -3703,28 +3703,28 @@
         <v>60</v>
       </c>
       <c r="B80" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C80" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D80" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="E80" t="n">
-        <v>37.9</v>
+        <v>42.8</v>
       </c>
       <c r="F80" t="n">
         <v>0.1</v>
       </c>
       <c r="G80" t="n">
-        <v>60.1</v>
+        <v>59.7</v>
       </c>
       <c r="H80" t="n">
-        <v>60.8</v>
+        <v>60.4</v>
       </c>
       <c r="I80" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="J80" t="n">
         <v>0.8</v>
@@ -3736,7 +3736,7 @@
         <v>0.9</v>
       </c>
       <c r="M80" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="81">
@@ -3744,7 +3744,7 @@
         <v>60</v>
       </c>
       <c r="B81" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C81" t="n">
         <v>72</v>
@@ -3753,22 +3753,22 @@
         <v>0.6</v>
       </c>
       <c r="E81" t="n">
-        <v>39.1</v>
+        <v>36.6</v>
       </c>
       <c r="F81" t="n">
         <v>0.1</v>
       </c>
       <c r="G81" t="n">
-        <v>61.6</v>
+        <v>59.8</v>
       </c>
       <c r="H81" t="n">
-        <v>59.8</v>
+        <v>60</v>
       </c>
       <c r="I81" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J81" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="K81" t="n">
         <v>0.4</v>
@@ -3777,12 +3777,12 @@
         <v>0.9</v>
       </c>
       <c r="M81" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B82" t="n">
         <v>28</v>
@@ -3794,22 +3794,22 @@
         <v>0.6</v>
       </c>
       <c r="E82" t="n">
-        <v>41.6</v>
+        <v>38.9</v>
       </c>
       <c r="F82" t="n">
         <v>0.1</v>
       </c>
       <c r="G82" t="n">
-        <v>94</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="H82" t="n">
-        <v>96.2</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="I82" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J82" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="K82" t="n">
         <v>0.4</v>
@@ -3818,36 +3818,36 @@
         <v>0.9</v>
       </c>
       <c r="M82" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B83" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C83" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D83" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="E83" t="n">
-        <v>41.6</v>
+        <v>43.3</v>
       </c>
       <c r="F83" t="n">
         <v>0.1</v>
       </c>
       <c r="G83" t="n">
-        <v>95</v>
+        <v>95.3</v>
       </c>
       <c r="H83" t="n">
-        <v>96.09999999999999</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="I83" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="J83" t="n">
         <v>0.9</v>
@@ -3870,25 +3870,25 @@
         <v>28</v>
       </c>
       <c r="C84" t="n">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="D84" t="n">
         <v>0.6</v>
       </c>
       <c r="E84" t="n">
-        <v>38.9</v>
+        <v>39.8</v>
       </c>
       <c r="F84" t="n">
         <v>0.1</v>
       </c>
       <c r="G84" t="n">
-        <v>95.59999999999999</v>
+        <v>96</v>
       </c>
       <c r="H84" t="n">
-        <v>96.7</v>
+        <v>94</v>
       </c>
       <c r="I84" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="J84" t="n">
         <v>0.9</v>
@@ -3905,31 +3905,31 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B85" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C85" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D85" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="E85" t="n">
-        <v>43.5</v>
+        <v>35.7</v>
       </c>
       <c r="F85" t="n">
         <v>0.1</v>
       </c>
       <c r="G85" t="n">
-        <v>93.90000000000001</v>
+        <v>94.2</v>
       </c>
       <c r="H85" t="n">
-        <v>93.90000000000001</v>
+        <v>94.2</v>
       </c>
       <c r="I85" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J85" t="n">
         <v>0.8</v>
@@ -3941,7 +3941,7 @@
         <v>0.9</v>
       </c>
       <c r="M85" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="86">
@@ -3949,7 +3949,7 @@
         <v>48</v>
       </c>
       <c r="B86" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C86" t="n">
         <v>72</v>
@@ -3958,22 +3958,22 @@
         <v>0.6</v>
       </c>
       <c r="E86" t="n">
-        <v>39.4</v>
+        <v>45</v>
       </c>
       <c r="F86" t="n">
         <v>0.1</v>
       </c>
       <c r="G86" t="n">
-        <v>93.5</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="H86" t="n">
-        <v>95.40000000000001</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="I86" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="J86" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="K86" t="n">
         <v>0.4</v>
@@ -3982,39 +3982,39 @@
         <v>0.9</v>
       </c>
       <c r="M86" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B87" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C87" t="n">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D87" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="E87" t="n">
-        <v>38.8</v>
+        <v>37</v>
       </c>
       <c r="F87" t="n">
         <v>0.1</v>
       </c>
       <c r="G87" t="n">
-        <v>96.3</v>
+        <v>97</v>
       </c>
       <c r="H87" t="n">
-        <v>95.8</v>
+        <v>95.3</v>
       </c>
       <c r="I87" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="J87" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="K87" t="n">
         <v>0.4</v>
@@ -4023,24 +4023,24 @@
         <v>0.9</v>
       </c>
       <c r="M87" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B88" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C88" t="n">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D88" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="E88" t="n">
-        <v>38</v>
+        <v>36.7</v>
       </c>
       <c r="F88" t="n">
         <v>0.1</v>
@@ -4052,7 +4052,7 @@
         <v>95.7</v>
       </c>
       <c r="I88" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="J88" t="n">
         <v>0.9</v>
@@ -4064,36 +4064,36 @@
         <v>0.9</v>
       </c>
       <c r="M88" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B89" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C89" t="n">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D89" t="n">
         <v>0.6</v>
       </c>
       <c r="E89" t="n">
-        <v>39.2</v>
+        <v>44</v>
       </c>
       <c r="F89" t="n">
         <v>0.1</v>
       </c>
       <c r="G89" t="n">
-        <v>94.40000000000001</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="H89" t="n">
-        <v>93.40000000000001</v>
+        <v>96.5</v>
       </c>
       <c r="I89" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="J89" t="n">
         <v>0.8</v>
@@ -4110,34 +4110,34 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B90" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C90" t="n">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D90" t="n">
         <v>0.6</v>
       </c>
       <c r="E90" t="n">
-        <v>41.5</v>
+        <v>39.2</v>
       </c>
       <c r="F90" t="n">
         <v>0.1</v>
       </c>
       <c r="G90" t="n">
-        <v>94.90000000000001</v>
+        <v>92.7</v>
       </c>
       <c r="H90" t="n">
         <v>94.7</v>
       </c>
       <c r="I90" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="J90" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="K90" t="n">
         <v>0.4</v>
@@ -4146,30 +4146,30 @@
         <v>0.9</v>
       </c>
       <c r="M90" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B91" t="n">
         <v>28</v>
       </c>
       <c r="C91" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D91" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="E91" t="n">
-        <v>37.2</v>
+        <v>41.1</v>
       </c>
       <c r="F91" t="n">
         <v>0.1</v>
       </c>
       <c r="G91" t="n">
-        <v>93.7</v>
+        <v>95.3</v>
       </c>
       <c r="H91" t="n">
         <v>95.5</v>
@@ -4187,39 +4187,39 @@
         <v>0.9</v>
       </c>
       <c r="M91" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B92" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C92" t="n">
         <v>72</v>
       </c>
       <c r="D92" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="E92" t="n">
-        <v>40.4</v>
+        <v>40.5</v>
       </c>
       <c r="F92" t="n">
         <v>0.1</v>
       </c>
       <c r="G92" t="n">
-        <v>94.7</v>
+        <v>95.2</v>
       </c>
       <c r="H92" t="n">
-        <v>94.8</v>
+        <v>97</v>
       </c>
       <c r="I92" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="J92" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="K92" t="n">
         <v>0.4</v>
@@ -4228,7 +4228,7 @@
         <v>0.9</v>
       </c>
       <c r="M92" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="93">
@@ -4239,28 +4239,28 @@
         <v>29</v>
       </c>
       <c r="C93" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D93" t="n">
         <v>0.6</v>
       </c>
       <c r="E93" t="n">
-        <v>43</v>
+        <v>41.2</v>
       </c>
       <c r="F93" t="n">
         <v>0.1</v>
       </c>
       <c r="G93" t="n">
-        <v>95.3</v>
+        <v>94.7</v>
       </c>
       <c r="H93" t="n">
-        <v>93.90000000000001</v>
+        <v>96</v>
       </c>
       <c r="I93" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="J93" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="K93" t="n">
         <v>0.4</v>
@@ -4274,31 +4274,31 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B94" t="n">
         <v>29</v>
       </c>
       <c r="C94" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D94" t="n">
         <v>0.6</v>
       </c>
       <c r="E94" t="n">
-        <v>37.6</v>
+        <v>39.3</v>
       </c>
       <c r="F94" t="n">
         <v>0.1</v>
       </c>
       <c r="G94" t="n">
-        <v>94.3</v>
+        <v>93.5</v>
       </c>
       <c r="H94" t="n">
-        <v>93.5</v>
+        <v>94.8</v>
       </c>
       <c r="I94" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J94" t="n">
         <v>0.9</v>
@@ -4310,36 +4310,36 @@
         <v>0.9</v>
       </c>
       <c r="M94" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B95" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C95" t="n">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D95" t="n">
         <v>0.6</v>
       </c>
       <c r="E95" t="n">
-        <v>43.7</v>
+        <v>39</v>
       </c>
       <c r="F95" t="n">
         <v>0.1</v>
       </c>
       <c r="G95" t="n">
-        <v>95.59999999999999</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="H95" t="n">
-        <v>96</v>
+        <v>95.2</v>
       </c>
       <c r="I95" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J95" t="n">
         <v>0.9</v>
@@ -4351,39 +4351,39 @@
         <v>0.9</v>
       </c>
       <c r="M95" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B96" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C96" t="n">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D96" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="E96" t="n">
-        <v>36.9</v>
+        <v>43.6</v>
       </c>
       <c r="F96" t="n">
         <v>0.1</v>
       </c>
       <c r="G96" t="n">
-        <v>96.2</v>
+        <v>95.5</v>
       </c>
       <c r="H96" t="n">
-        <v>94.40000000000001</v>
+        <v>96</v>
       </c>
       <c r="I96" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J96" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="K96" t="n">
         <v>0.4</v>
@@ -4403,25 +4403,25 @@
         <v>27</v>
       </c>
       <c r="C97" t="n">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D97" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="E97" t="n">
-        <v>40.2</v>
+        <v>39.6</v>
       </c>
       <c r="F97" t="n">
         <v>0.1</v>
       </c>
       <c r="G97" t="n">
-        <v>94.90000000000001</v>
+        <v>96.5</v>
       </c>
       <c r="H97" t="n">
-        <v>94.59999999999999</v>
+        <v>94.5</v>
       </c>
       <c r="I97" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="J97" t="n">
         <v>0.9</v>
@@ -4433,39 +4433,39 @@
         <v>0.9</v>
       </c>
       <c r="M97" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B98" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C98" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D98" t="n">
         <v>0.7</v>
       </c>
       <c r="E98" t="n">
-        <v>40.1</v>
+        <v>41.4</v>
       </c>
       <c r="F98" t="n">
         <v>0.1</v>
       </c>
       <c r="G98" t="n">
-        <v>94</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="H98" t="n">
-        <v>95.3</v>
+        <v>95</v>
       </c>
       <c r="I98" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J98" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="K98" t="n">
         <v>0.4</v>
@@ -4474,36 +4474,36 @@
         <v>0.9</v>
       </c>
       <c r="M98" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B99" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C99" t="n">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D99" t="n">
         <v>0.6</v>
       </c>
       <c r="E99" t="n">
-        <v>38.3</v>
+        <v>41</v>
       </c>
       <c r="F99" t="n">
         <v>0.1</v>
       </c>
       <c r="G99" t="n">
+        <v>96.2</v>
+      </c>
+      <c r="H99" t="n">
         <v>95</v>
       </c>
-      <c r="H99" t="n">
-        <v>96.90000000000001</v>
-      </c>
       <c r="I99" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J99" t="n">
         <v>0.8</v>
@@ -4515,39 +4515,39 @@
         <v>0.9</v>
       </c>
       <c r="M99" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B100" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C100" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D100" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="E100" t="n">
-        <v>41.9</v>
+        <v>42.5</v>
       </c>
       <c r="F100" t="n">
         <v>0.1</v>
       </c>
       <c r="G100" t="n">
-        <v>94.3</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="H100" t="n">
-        <v>95.59999999999999</v>
+        <v>96.3</v>
       </c>
       <c r="I100" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="J100" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="K100" t="n">
         <v>0.4</v>
@@ -4556,36 +4556,36 @@
         <v>0.9</v>
       </c>
       <c r="M100" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B101" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C101" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D101" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="E101" t="n">
-        <v>39.1</v>
+        <v>42.5</v>
       </c>
       <c r="F101" t="n">
         <v>0.1</v>
       </c>
       <c r="G101" t="n">
-        <v>95</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="H101" t="n">
-        <v>95.5</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="I101" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="J101" t="n">
         <v>0.9</v>
@@ -4597,39 +4597,39 @@
         <v>0.9</v>
       </c>
       <c r="M101" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B102" t="n">
         <v>28</v>
       </c>
       <c r="C102" t="n">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D102" t="n">
         <v>0.6</v>
       </c>
       <c r="E102" t="n">
-        <v>41.6</v>
+        <v>37.3</v>
       </c>
       <c r="F102" t="n">
         <v>0.1</v>
       </c>
       <c r="G102" t="n">
-        <v>59.1</v>
+        <v>60.4</v>
       </c>
       <c r="H102" t="n">
-        <v>59.5</v>
+        <v>61.3</v>
       </c>
       <c r="I102" t="n">
         <v>14</v>
       </c>
       <c r="J102" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="K102" t="n">
         <v>0.4</v>
@@ -4638,36 +4638,36 @@
         <v>0.9</v>
       </c>
       <c r="M102" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B103" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C103" t="n">
         <v>74</v>
       </c>
       <c r="D103" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="E103" t="n">
-        <v>40.8</v>
+        <v>37.2</v>
       </c>
       <c r="F103" t="n">
         <v>0.1</v>
       </c>
       <c r="G103" t="n">
-        <v>59.5</v>
+        <v>60.5</v>
       </c>
       <c r="H103" t="n">
         <v>59.8</v>
       </c>
       <c r="I103" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J103" t="n">
         <v>0.8</v>
@@ -4679,36 +4679,36 @@
         <v>0.9</v>
       </c>
       <c r="M103" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B104" t="n">
         <v>29</v>
       </c>
       <c r="C104" t="n">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D104" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="E104" t="n">
-        <v>37</v>
+        <v>39.6</v>
       </c>
       <c r="F104" t="n">
         <v>0.1</v>
       </c>
       <c r="G104" t="n">
-        <v>58.9</v>
+        <v>60.7</v>
       </c>
       <c r="H104" t="n">
-        <v>60.7</v>
+        <v>60.9</v>
       </c>
       <c r="I104" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J104" t="n">
         <v>0.9</v>
@@ -4720,24 +4720,24 @@
         <v>0.9</v>
       </c>
       <c r="M104" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B105" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C105" t="n">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D105" t="n">
         <v>0.6</v>
       </c>
       <c r="E105" t="n">
-        <v>39.3</v>
+        <v>37.7</v>
       </c>
       <c r="F105" t="n">
         <v>0.1</v>
@@ -4746,10 +4746,10 @@
         <v>59.4</v>
       </c>
       <c r="H105" t="n">
-        <v>59.8</v>
+        <v>61.2</v>
       </c>
       <c r="I105" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="J105" t="n">
         <v>0.8</v>
@@ -4761,39 +4761,39 @@
         <v>0.9</v>
       </c>
       <c r="M105" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B106" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C106" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D106" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="E106" t="n">
-        <v>37.6</v>
+        <v>40.7</v>
       </c>
       <c r="F106" t="n">
         <v>0.1</v>
       </c>
       <c r="G106" t="n">
-        <v>60.3</v>
+        <v>59.4</v>
       </c>
       <c r="H106" t="n">
-        <v>60.4</v>
+        <v>60</v>
       </c>
       <c r="I106" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="J106" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="K106" t="n">
         <v>0.4</v>
@@ -4807,34 +4807,34 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B107" t="n">
         <v>28</v>
       </c>
       <c r="C107" t="n">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D107" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="E107" t="n">
-        <v>40</v>
+        <v>41.5</v>
       </c>
       <c r="F107" t="n">
         <v>0.1</v>
       </c>
       <c r="G107" t="n">
+        <v>60.4</v>
+      </c>
+      <c r="H107" t="n">
         <v>59.9</v>
       </c>
-      <c r="H107" t="n">
-        <v>61.6</v>
-      </c>
       <c r="I107" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J107" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="K107" t="n">
         <v>0.4</v>
@@ -4843,39 +4843,39 @@
         <v>0.9</v>
       </c>
       <c r="M107" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B108" t="n">
         <v>28</v>
       </c>
       <c r="C108" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D108" t="n">
         <v>0.6</v>
       </c>
       <c r="E108" t="n">
-        <v>42.6</v>
+        <v>39.9</v>
       </c>
       <c r="F108" t="n">
         <v>0.1</v>
       </c>
       <c r="G108" t="n">
-        <v>60.3</v>
+        <v>59.7</v>
       </c>
       <c r="H108" t="n">
-        <v>61</v>
+        <v>61.3</v>
       </c>
       <c r="I108" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="J108" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="K108" t="n">
         <v>0.4</v>
@@ -4889,34 +4889,34 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B109" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C109" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D109" t="n">
         <v>0.6</v>
       </c>
       <c r="E109" t="n">
-        <v>35.6</v>
+        <v>35.2</v>
       </c>
       <c r="F109" t="n">
         <v>0.1</v>
       </c>
       <c r="G109" t="n">
-        <v>59.7</v>
+        <v>61.6</v>
       </c>
       <c r="H109" t="n">
-        <v>59.4</v>
+        <v>59.9</v>
       </c>
       <c r="I109" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J109" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="K109" t="n">
         <v>0.4</v>
@@ -4925,36 +4925,36 @@
         <v>0.9</v>
       </c>
       <c r="M109" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B110" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C110" t="n">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D110" t="n">
         <v>0.6</v>
       </c>
       <c r="E110" t="n">
-        <v>37.1</v>
+        <v>38.8</v>
       </c>
       <c r="F110" t="n">
         <v>0.1</v>
       </c>
       <c r="G110" t="n">
-        <v>60.1</v>
+        <v>59.7</v>
       </c>
       <c r="H110" t="n">
-        <v>61.1</v>
+        <v>60.4</v>
       </c>
       <c r="I110" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="J110" t="n">
         <v>0.8</v>
@@ -4966,24 +4966,24 @@
         <v>0.9</v>
       </c>
       <c r="M110" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B111" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C111" t="n">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D111" t="n">
         <v>0.6</v>
       </c>
       <c r="E111" t="n">
-        <v>37</v>
+        <v>39.7</v>
       </c>
       <c r="F111" t="n">
         <v>0.1</v>
@@ -4992,10 +4992,10 @@
         <v>60.9</v>
       </c>
       <c r="H111" t="n">
-        <v>60.6</v>
+        <v>59.2</v>
       </c>
       <c r="I111" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J111" t="n">
         <v>0.8</v>
@@ -5012,34 +5012,34 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B112" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C112" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D112" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="E112" t="n">
-        <v>41</v>
+        <v>40.1</v>
       </c>
       <c r="F112" t="n">
         <v>0.1</v>
       </c>
       <c r="G112" t="n">
+        <v>59.8</v>
+      </c>
+      <c r="H112" t="n">
         <v>60.7</v>
       </c>
-      <c r="H112" t="n">
-        <v>60.2</v>
-      </c>
       <c r="I112" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J112" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="K112" t="n">
         <v>0.4</v>
@@ -5048,7 +5048,7 @@
         <v>0.9</v>
       </c>
       <c r="M112" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="113">
@@ -5065,22 +5065,22 @@
         <v>0.6</v>
       </c>
       <c r="E113" t="n">
-        <v>39.6</v>
+        <v>38.4</v>
       </c>
       <c r="F113" t="n">
         <v>0.1</v>
       </c>
       <c r="G113" t="n">
-        <v>60.3</v>
+        <v>58.9</v>
       </c>
       <c r="H113" t="n">
         <v>59.3</v>
       </c>
       <c r="I113" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J113" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="K113" t="n">
         <v>0.4</v>
@@ -5089,36 +5089,36 @@
         <v>0.9</v>
       </c>
       <c r="M113" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B114" t="n">
         <v>27</v>
       </c>
       <c r="C114" t="n">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D114" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="E114" t="n">
-        <v>41.1</v>
+        <v>42.8</v>
       </c>
       <c r="F114" t="n">
         <v>0.1</v>
       </c>
       <c r="G114" t="n">
+        <v>61.6</v>
+      </c>
+      <c r="H114" t="n">
         <v>60.7</v>
       </c>
-      <c r="H114" t="n">
-        <v>60</v>
-      </c>
       <c r="I114" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J114" t="n">
         <v>0.9</v>
@@ -5135,31 +5135,31 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B115" t="n">
         <v>28</v>
       </c>
       <c r="C115" t="n">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D115" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="E115" t="n">
-        <v>42.2</v>
+        <v>40.9</v>
       </c>
       <c r="F115" t="n">
         <v>0.1</v>
       </c>
       <c r="G115" t="n">
-        <v>58.2</v>
+        <v>61.5</v>
       </c>
       <c r="H115" t="n">
-        <v>61</v>
+        <v>61.3</v>
       </c>
       <c r="I115" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="J115" t="n">
         <v>0.8</v>
@@ -5176,31 +5176,31 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B116" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C116" t="n">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D116" t="n">
         <v>0.6</v>
       </c>
       <c r="E116" t="n">
-        <v>39.2</v>
+        <v>38.8</v>
       </c>
       <c r="F116" t="n">
         <v>0.1</v>
       </c>
       <c r="G116" t="n">
-        <v>59.2</v>
+        <v>61.6</v>
       </c>
       <c r="H116" t="n">
-        <v>60.1</v>
+        <v>58.7</v>
       </c>
       <c r="I116" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="J116" t="n">
         <v>0.9</v>
@@ -5212,39 +5212,39 @@
         <v>0.9</v>
       </c>
       <c r="M116" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B117" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C117" t="n">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D117" t="n">
         <v>0.6</v>
       </c>
       <c r="E117" t="n">
-        <v>37.4</v>
+        <v>41.2</v>
       </c>
       <c r="F117" t="n">
         <v>0.1</v>
       </c>
       <c r="G117" t="n">
-        <v>59.6</v>
+        <v>58.7</v>
       </c>
       <c r="H117" t="n">
-        <v>57.5</v>
+        <v>60.1</v>
       </c>
       <c r="I117" t="n">
         <v>12</v>
       </c>
       <c r="J117" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="K117" t="n">
         <v>0.4</v>
@@ -5258,34 +5258,34 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B118" t="n">
         <v>29</v>
       </c>
       <c r="C118" t="n">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D118" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="E118" t="n">
-        <v>38.4</v>
+        <v>36.8</v>
       </c>
       <c r="F118" t="n">
         <v>0.1</v>
       </c>
       <c r="G118" t="n">
-        <v>61.1</v>
+        <v>62</v>
       </c>
       <c r="H118" t="n">
-        <v>59.6</v>
+        <v>60.8</v>
       </c>
       <c r="I118" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J118" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="K118" t="n">
         <v>0.4</v>
@@ -5294,39 +5294,39 @@
         <v>0.9</v>
       </c>
       <c r="M118" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B119" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C119" t="n">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D119" t="n">
         <v>0.6</v>
       </c>
       <c r="E119" t="n">
-        <v>40</v>
+        <v>39.4</v>
       </c>
       <c r="F119" t="n">
         <v>0.1</v>
       </c>
       <c r="G119" t="n">
-        <v>60.9</v>
+        <v>60.2</v>
       </c>
       <c r="H119" t="n">
-        <v>61.2</v>
+        <v>60.3</v>
       </c>
       <c r="I119" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J119" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="K119" t="n">
         <v>0.4</v>
@@ -5335,39 +5335,39 @@
         <v>0.9</v>
       </c>
       <c r="M119" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B120" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C120" t="n">
         <v>72</v>
       </c>
       <c r="D120" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="E120" t="n">
-        <v>41.5</v>
+        <v>42.4</v>
       </c>
       <c r="F120" t="n">
         <v>0.1</v>
       </c>
       <c r="G120" t="n">
-        <v>61.1</v>
+        <v>59.8</v>
       </c>
       <c r="H120" t="n">
-        <v>60.6</v>
+        <v>60.1</v>
       </c>
       <c r="I120" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="J120" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="K120" t="n">
         <v>0.4</v>
@@ -5376,7 +5376,7 @@
         <v>0.9</v>
       </c>
       <c r="M120" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="121">
@@ -5384,28 +5384,28 @@
         <v>60</v>
       </c>
       <c r="B121" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C121" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D121" t="n">
         <v>0.6</v>
       </c>
       <c r="E121" t="n">
-        <v>40.3</v>
+        <v>42.3</v>
       </c>
       <c r="F121" t="n">
         <v>0.1</v>
       </c>
       <c r="G121" t="n">
-        <v>60.9</v>
+        <v>59.9</v>
       </c>
       <c r="H121" t="n">
-        <v>60.2</v>
+        <v>59.2</v>
       </c>
       <c r="I121" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="J121" t="n">
         <v>0.8</v>
@@ -5417,36 +5417,36 @@
         <v>0.9</v>
       </c>
       <c r="M121" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B122" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C122" t="n">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D122" t="n">
         <v>0.6</v>
       </c>
       <c r="E122" t="n">
-        <v>41.6</v>
+        <v>43</v>
       </c>
       <c r="F122" t="n">
         <v>0.2</v>
       </c>
       <c r="G122" t="n">
-        <v>50.9</v>
+        <v>51.4</v>
       </c>
       <c r="H122" t="n">
-        <v>52.7</v>
+        <v>51</v>
       </c>
       <c r="I122" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="J122" t="n">
         <v>0.9</v>
@@ -5458,36 +5458,36 @@
         <v>0.9</v>
       </c>
       <c r="M122" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B123" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C123" t="n">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D123" t="n">
         <v>0.6</v>
       </c>
       <c r="E123" t="n">
-        <v>41.4</v>
+        <v>39.3</v>
       </c>
       <c r="F123" t="n">
         <v>0.2</v>
       </c>
       <c r="G123" t="n">
-        <v>50.4</v>
+        <v>51.7</v>
       </c>
       <c r="H123" t="n">
-        <v>51.3</v>
+        <v>49.5</v>
       </c>
       <c r="I123" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J123" t="n">
         <v>0.8</v>
@@ -5499,36 +5499,36 @@
         <v>0.9</v>
       </c>
       <c r="M123" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B124" t="n">
         <v>28</v>
       </c>
       <c r="C124" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D124" t="n">
         <v>0.6</v>
       </c>
       <c r="E124" t="n">
-        <v>37.4</v>
+        <v>43.2</v>
       </c>
       <c r="F124" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="G124" t="n">
-        <v>50.4</v>
+        <v>51.4</v>
       </c>
       <c r="H124" t="n">
-        <v>52.4</v>
+        <v>50.7</v>
       </c>
       <c r="I124" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="J124" t="n">
         <v>0.9</v>
@@ -5540,39 +5540,39 @@
         <v>0.9</v>
       </c>
       <c r="M124" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B125" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C125" t="n">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D125" t="n">
         <v>0.5</v>
       </c>
       <c r="E125" t="n">
-        <v>38.5</v>
+        <v>41.5</v>
       </c>
       <c r="F125" t="n">
         <v>0.1</v>
       </c>
       <c r="G125" t="n">
-        <v>51.3</v>
+        <v>50.6</v>
       </c>
       <c r="H125" t="n">
-        <v>51.3</v>
+        <v>51.8</v>
       </c>
       <c r="I125" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J125" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="K125" t="n">
         <v>0.4</v>
@@ -5586,31 +5586,31 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B126" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C126" t="n">
         <v>71</v>
       </c>
       <c r="D126" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="E126" t="n">
-        <v>43.6</v>
+        <v>36.9</v>
       </c>
       <c r="F126" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="G126" t="n">
-        <v>52.2</v>
+        <v>51.9</v>
       </c>
       <c r="H126" t="n">
-        <v>49.1</v>
+        <v>51.2</v>
       </c>
       <c r="I126" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="J126" t="n">
         <v>0.9</v>
@@ -5622,7 +5622,7 @@
         <v>0.9</v>
       </c>
       <c r="M126" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="127">
@@ -5630,31 +5630,31 @@
         <v>61</v>
       </c>
       <c r="B127" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C127" t="n">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D127" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="E127" t="n">
-        <v>41.8</v>
+        <v>42.4</v>
       </c>
       <c r="F127" t="n">
         <v>0.2</v>
       </c>
       <c r="G127" t="n">
-        <v>51.5</v>
+        <v>52.3</v>
       </c>
       <c r="H127" t="n">
-        <v>52.3</v>
+        <v>50.6</v>
       </c>
       <c r="I127" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="J127" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="K127" t="n">
         <v>0.4</v>
@@ -5663,7 +5663,7 @@
         <v>0.9</v>
       </c>
       <c r="M127" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="128">
@@ -5671,31 +5671,31 @@
         <v>62</v>
       </c>
       <c r="B128" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C128" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D128" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="E128" t="n">
-        <v>38.1</v>
+        <v>43.3</v>
       </c>
       <c r="F128" t="n">
         <v>0.1</v>
       </c>
       <c r="G128" t="n">
-        <v>52</v>
+        <v>50.3</v>
       </c>
       <c r="H128" t="n">
-        <v>52.5</v>
+        <v>49.9</v>
       </c>
       <c r="I128" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="J128" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="K128" t="n">
         <v>0.4</v>
@@ -5704,36 +5704,36 @@
         <v>0.9</v>
       </c>
       <c r="M128" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B129" t="n">
         <v>28</v>
       </c>
       <c r="C129" t="n">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D129" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="E129" t="n">
-        <v>40.8</v>
+        <v>39.8</v>
       </c>
       <c r="F129" t="n">
         <v>0.2</v>
       </c>
       <c r="G129" t="n">
-        <v>51.7</v>
+        <v>50.6</v>
       </c>
       <c r="H129" t="n">
-        <v>51.9</v>
+        <v>52.3</v>
       </c>
       <c r="I129" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J129" t="n">
         <v>0.8</v>
@@ -5753,31 +5753,31 @@
         <v>62</v>
       </c>
       <c r="B130" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C130" t="n">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D130" t="n">
         <v>0.6</v>
       </c>
       <c r="E130" t="n">
-        <v>41.6</v>
+        <v>45</v>
       </c>
       <c r="F130" t="n">
         <v>0.2</v>
       </c>
       <c r="G130" t="n">
-        <v>50.2</v>
+        <v>52.1</v>
       </c>
       <c r="H130" t="n">
-        <v>53.2</v>
+        <v>51.7</v>
       </c>
       <c r="I130" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J130" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="K130" t="n">
         <v>0.4</v>
@@ -5786,36 +5786,36 @@
         <v>0.9</v>
       </c>
       <c r="M130" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B131" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C131" t="n">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D131" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="E131" t="n">
-        <v>41.4</v>
+        <v>42.2</v>
       </c>
       <c r="F131" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="G131" t="n">
-        <v>51.6</v>
+        <v>51.7</v>
       </c>
       <c r="H131" t="n">
-        <v>52.8</v>
+        <v>51.2</v>
       </c>
       <c r="I131" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J131" t="n">
         <v>0.9</v>
@@ -5827,36 +5827,36 @@
         <v>0.9</v>
       </c>
       <c r="M131" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B132" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C132" t="n">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D132" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="E132" t="n">
-        <v>37.5</v>
+        <v>39.4</v>
       </c>
       <c r="F132" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="G132" t="n">
-        <v>52.2</v>
+        <v>51.5</v>
       </c>
       <c r="H132" t="n">
-        <v>53.6</v>
+        <v>53.3</v>
       </c>
       <c r="I132" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="J132" t="n">
         <v>0.9</v>
@@ -5868,7 +5868,7 @@
         <v>0.9</v>
       </c>
       <c r="M132" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="133">
@@ -5876,31 +5876,31 @@
         <v>62</v>
       </c>
       <c r="B133" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C133" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D133" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="E133" t="n">
-        <v>40</v>
+        <v>40.2</v>
       </c>
       <c r="F133" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="G133" t="n">
-        <v>52.7</v>
+        <v>50.9</v>
       </c>
       <c r="H133" t="n">
-        <v>51.9</v>
+        <v>51.3</v>
       </c>
       <c r="I133" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J133" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="K133" t="n">
         <v>0.4</v>
@@ -5909,7 +5909,7 @@
         <v>0.9</v>
       </c>
       <c r="M133" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="134">
@@ -5920,25 +5920,25 @@
         <v>29</v>
       </c>
       <c r="C134" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D134" t="n">
         <v>0.7</v>
       </c>
       <c r="E134" t="n">
-        <v>42.4</v>
+        <v>40.3</v>
       </c>
       <c r="F134" t="n">
         <v>0.2</v>
       </c>
       <c r="G134" t="n">
-        <v>54.1</v>
+        <v>48.6</v>
       </c>
       <c r="H134" t="n">
-        <v>51.6</v>
+        <v>52.5</v>
       </c>
       <c r="I134" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J134" t="n">
         <v>0.9</v>
@@ -5950,7 +5950,7 @@
         <v>0.9</v>
       </c>
       <c r="M134" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="135">
@@ -5961,25 +5961,25 @@
         <v>27</v>
       </c>
       <c r="C135" t="n">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D135" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="E135" t="n">
-        <v>40.6</v>
+        <v>40</v>
       </c>
       <c r="F135" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="G135" t="n">
-        <v>52.4</v>
+        <v>52.7</v>
       </c>
       <c r="H135" t="n">
-        <v>50.8</v>
+        <v>51.3</v>
       </c>
       <c r="I135" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J135" t="n">
         <v>0.9</v>
@@ -5991,36 +5991,36 @@
         <v>0.9</v>
       </c>
       <c r="M135" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B136" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C136" t="n">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D136" t="n">
         <v>0.6</v>
       </c>
       <c r="E136" t="n">
-        <v>44.8</v>
+        <v>41.9</v>
       </c>
       <c r="F136" t="n">
         <v>0.2</v>
       </c>
       <c r="G136" t="n">
-        <v>53.5</v>
+        <v>50.9</v>
       </c>
       <c r="H136" t="n">
-        <v>52.4</v>
+        <v>52.9</v>
       </c>
       <c r="I136" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J136" t="n">
         <v>0.8</v>
@@ -6032,36 +6032,36 @@
         <v>0.9</v>
       </c>
       <c r="M136" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B137" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C137" t="n">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D137" t="n">
         <v>0.6</v>
       </c>
       <c r="E137" t="n">
-        <v>43</v>
+        <v>42.4</v>
       </c>
       <c r="F137" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="G137" t="n">
-        <v>50.9</v>
+        <v>50.8</v>
       </c>
       <c r="H137" t="n">
-        <v>50.9</v>
+        <v>51.8</v>
       </c>
       <c r="I137" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J137" t="n">
         <v>0.9</v>
@@ -6078,31 +6078,31 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B138" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C138" t="n">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D138" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="E138" t="n">
-        <v>40.6</v>
+        <v>37.4</v>
       </c>
       <c r="F138" t="n">
         <v>0.1</v>
       </c>
       <c r="G138" t="n">
-        <v>51.2</v>
+        <v>51.8</v>
       </c>
       <c r="H138" t="n">
-        <v>53</v>
+        <v>52.7</v>
       </c>
       <c r="I138" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="J138" t="n">
         <v>0.9</v>
@@ -6114,7 +6114,7 @@
         <v>0.9</v>
       </c>
       <c r="M138" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="139">
@@ -6122,31 +6122,31 @@
         <v>63</v>
       </c>
       <c r="B139" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C139" t="n">
         <v>73</v>
       </c>
       <c r="D139" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="E139" t="n">
-        <v>41.7</v>
+        <v>40.7</v>
       </c>
       <c r="F139" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="G139" t="n">
-        <v>51.7</v>
+        <v>52.5</v>
       </c>
       <c r="H139" t="n">
-        <v>51.4</v>
+        <v>52.4</v>
       </c>
       <c r="I139" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="J139" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="K139" t="n">
         <v>0.4</v>
@@ -6155,7 +6155,7 @@
         <v>0.9</v>
       </c>
       <c r="M139" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="140">
@@ -6163,31 +6163,31 @@
         <v>62</v>
       </c>
       <c r="B140" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C140" t="n">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D140" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="E140" t="n">
-        <v>41.2</v>
+        <v>39.4</v>
       </c>
       <c r="F140" t="n">
         <v>0.2</v>
       </c>
       <c r="G140" t="n">
-        <v>51.2</v>
+        <v>49.8</v>
       </c>
       <c r="H140" t="n">
-        <v>49.6</v>
+        <v>51</v>
       </c>
       <c r="I140" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="J140" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="K140" t="n">
         <v>0.4</v>
@@ -6201,31 +6201,31 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B141" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C141" t="n">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D141" t="n">
         <v>0.6</v>
       </c>
       <c r="E141" t="n">
-        <v>37.6</v>
+        <v>42.5</v>
       </c>
       <c r="F141" t="n">
         <v>0.2</v>
       </c>
       <c r="G141" t="n">
-        <v>49.7</v>
+        <v>50.4</v>
       </c>
       <c r="H141" t="n">
-        <v>51.1</v>
+        <v>52.5</v>
       </c>
       <c r="I141" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J141" t="n">
         <v>0.9</v>
@@ -6237,36 +6237,36 @@
         <v>0.9</v>
       </c>
       <c r="M141" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B142" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C142" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D142" t="n">
         <v>0.6</v>
       </c>
       <c r="E142" t="n">
-        <v>37.4</v>
+        <v>43.7</v>
       </c>
       <c r="F142" t="n">
         <v>0.1</v>
       </c>
       <c r="G142" t="n">
+        <v>76.90000000000001</v>
+      </c>
+      <c r="H142" t="n">
         <v>76.40000000000001</v>
       </c>
-      <c r="H142" t="n">
-        <v>76.8</v>
-      </c>
       <c r="I142" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="J142" t="n">
         <v>0.8</v>
@@ -6283,34 +6283,34 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B143" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C143" t="n">
         <v>71</v>
       </c>
       <c r="D143" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="E143" t="n">
-        <v>38.2</v>
+        <v>39.6</v>
       </c>
       <c r="F143" t="n">
         <v>0.1</v>
       </c>
       <c r="G143" t="n">
-        <v>77.3</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="H143" t="n">
-        <v>78.40000000000001</v>
+        <v>76.3</v>
       </c>
       <c r="I143" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="J143" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="K143" t="n">
         <v>0.4</v>
@@ -6319,7 +6319,7 @@
         <v>0.9</v>
       </c>
       <c r="M143" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="144">
@@ -6327,31 +6327,31 @@
         <v>77</v>
       </c>
       <c r="B144" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C144" t="n">
         <v>73</v>
       </c>
       <c r="D144" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="E144" t="n">
-        <v>36.9</v>
+        <v>43.2</v>
       </c>
       <c r="F144" t="n">
         <v>0.1</v>
       </c>
       <c r="G144" t="n">
-        <v>75.09999999999999</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="H144" t="n">
-        <v>77</v>
+        <v>77.5</v>
       </c>
       <c r="I144" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="J144" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="K144" t="n">
         <v>0.4</v>
@@ -6360,39 +6360,39 @@
         <v>0.9</v>
       </c>
       <c r="M144" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B145" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C145" t="n">
         <v>71</v>
       </c>
       <c r="D145" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="E145" t="n">
-        <v>39.1</v>
+        <v>40.3</v>
       </c>
       <c r="F145" t="n">
         <v>0.1</v>
       </c>
       <c r="G145" t="n">
+        <v>75.2</v>
+      </c>
+      <c r="H145" t="n">
         <v>75.90000000000001</v>
       </c>
-      <c r="H145" t="n">
-        <v>76.3</v>
-      </c>
       <c r="I145" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="J145" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="K145" t="n">
         <v>0.4</v>
@@ -6401,39 +6401,39 @@
         <v>0.9</v>
       </c>
       <c r="M145" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B146" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C146" t="n">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D146" t="n">
         <v>0.5</v>
       </c>
       <c r="E146" t="n">
-        <v>42.3</v>
+        <v>37.5</v>
       </c>
       <c r="F146" t="n">
         <v>0.1</v>
       </c>
       <c r="G146" t="n">
-        <v>75.7</v>
+        <v>77.3</v>
       </c>
       <c r="H146" t="n">
-        <v>76.5</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="I146" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J146" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="K146" t="n">
         <v>0.4</v>
@@ -6442,21 +6442,21 @@
         <v>0.9</v>
       </c>
       <c r="M146" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B147" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C147" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D147" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="E147" t="n">
         <v>41</v>
@@ -6465,16 +6465,16 @@
         <v>0.1</v>
       </c>
       <c r="G147" t="n">
-        <v>78.59999999999999</v>
+        <v>76.5</v>
       </c>
       <c r="H147" t="n">
-        <v>75.40000000000001</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="I147" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J147" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="K147" t="n">
         <v>0.4</v>
@@ -6483,36 +6483,36 @@
         <v>0.9</v>
       </c>
       <c r="M147" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B148" t="n">
         <v>27</v>
       </c>
       <c r="C148" t="n">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D148" t="n">
         <v>0.6</v>
       </c>
       <c r="E148" t="n">
-        <v>39.4</v>
+        <v>40.1</v>
       </c>
       <c r="F148" t="n">
         <v>0.1</v>
       </c>
       <c r="G148" t="n">
-        <v>77.09999999999999</v>
+        <v>77.7</v>
       </c>
       <c r="H148" t="n">
-        <v>75.40000000000001</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="I148" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J148" t="n">
         <v>0.9</v>
@@ -6524,7 +6524,7 @@
         <v>0.9</v>
       </c>
       <c r="M148" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="149">
@@ -6535,25 +6535,25 @@
         <v>29</v>
       </c>
       <c r="C149" t="n">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D149" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="E149" t="n">
-        <v>38.6</v>
+        <v>37.4</v>
       </c>
       <c r="F149" t="n">
         <v>0.1</v>
       </c>
       <c r="G149" t="n">
-        <v>76.8</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="H149" t="n">
-        <v>75.7</v>
+        <v>77.5</v>
       </c>
       <c r="I149" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="J149" t="n">
         <v>0.9</v>
@@ -6565,36 +6565,36 @@
         <v>0.9</v>
       </c>
       <c r="M149" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B150" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C150" t="n">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D150" t="n">
         <v>0.6</v>
       </c>
       <c r="E150" t="n">
-        <v>40.3</v>
+        <v>41.5</v>
       </c>
       <c r="F150" t="n">
         <v>0.1</v>
       </c>
       <c r="G150" t="n">
-        <v>75.2</v>
+        <v>77</v>
       </c>
       <c r="H150" t="n">
-        <v>76.5</v>
+        <v>76.2</v>
       </c>
       <c r="I150" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="J150" t="n">
         <v>0.9</v>
@@ -6606,39 +6606,39 @@
         <v>0.9</v>
       </c>
       <c r="M150" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B151" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C151" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D151" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="E151" t="n">
-        <v>39.9</v>
+        <v>41.3</v>
       </c>
       <c r="F151" t="n">
         <v>0.1</v>
       </c>
       <c r="G151" t="n">
-        <v>76.40000000000001</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="H151" t="n">
-        <v>75.90000000000001</v>
+        <v>76</v>
       </c>
       <c r="I151" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J151" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="K151" t="n">
         <v>0.4</v>
@@ -6652,34 +6652,34 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B152" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C152" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D152" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="E152" t="n">
-        <v>39.8</v>
+        <v>40.7</v>
       </c>
       <c r="F152" t="n">
         <v>0.1</v>
       </c>
       <c r="G152" t="n">
-        <v>76.09999999999999</v>
+        <v>78.7</v>
       </c>
       <c r="H152" t="n">
-        <v>77.40000000000001</v>
+        <v>75.5</v>
       </c>
       <c r="I152" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J152" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="K152" t="n">
         <v>0.4</v>
@@ -6688,36 +6688,36 @@
         <v>0.9</v>
       </c>
       <c r="M152" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B153" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C153" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D153" t="n">
         <v>0.6</v>
       </c>
       <c r="E153" t="n">
-        <v>38.9</v>
+        <v>39.9</v>
       </c>
       <c r="F153" t="n">
         <v>0.1</v>
       </c>
       <c r="G153" t="n">
-        <v>76.59999999999999</v>
+        <v>75.7</v>
       </c>
       <c r="H153" t="n">
-        <v>77.2</v>
+        <v>75.7</v>
       </c>
       <c r="I153" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J153" t="n">
         <v>0.8</v>
@@ -6729,36 +6729,36 @@
         <v>0.9</v>
       </c>
       <c r="M153" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B154" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C154" t="n">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D154" t="n">
         <v>0.6</v>
       </c>
       <c r="E154" t="n">
-        <v>38.4</v>
+        <v>40.1</v>
       </c>
       <c r="F154" t="n">
         <v>0.1</v>
       </c>
       <c r="G154" t="n">
-        <v>76.59999999999999</v>
+        <v>77.2</v>
       </c>
       <c r="H154" t="n">
-        <v>77.59999999999999</v>
+        <v>77.5</v>
       </c>
       <c r="I154" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J154" t="n">
         <v>0.8</v>
@@ -6770,39 +6770,39 @@
         <v>0.9</v>
       </c>
       <c r="M154" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B155" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C155" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D155" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="E155" t="n">
-        <v>42</v>
+        <v>38.5</v>
       </c>
       <c r="F155" t="n">
         <v>0.1</v>
       </c>
       <c r="G155" t="n">
-        <v>76.3</v>
+        <v>76.2</v>
       </c>
       <c r="H155" t="n">
-        <v>75.59999999999999</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="I155" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J155" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="K155" t="n">
         <v>0.4</v>
@@ -6811,15 +6811,15 @@
         <v>0.9</v>
       </c>
       <c r="M155" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B156" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C156" t="n">
         <v>73</v>
@@ -6828,19 +6828,19 @@
         <v>0.6</v>
       </c>
       <c r="E156" t="n">
-        <v>41.3</v>
+        <v>38.2</v>
       </c>
       <c r="F156" t="n">
         <v>0.1</v>
       </c>
       <c r="G156" t="n">
-        <v>77.59999999999999</v>
+        <v>77</v>
       </c>
       <c r="H156" t="n">
-        <v>77.2</v>
+        <v>76.5</v>
       </c>
       <c r="I156" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J156" t="n">
         <v>0.9</v>
@@ -6852,39 +6852,39 @@
         <v>0.9</v>
       </c>
       <c r="M156" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B157" t="n">
         <v>29</v>
       </c>
       <c r="C157" t="n">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D157" t="n">
         <v>0.6</v>
       </c>
       <c r="E157" t="n">
-        <v>42.7</v>
+        <v>38</v>
       </c>
       <c r="F157" t="n">
         <v>0.1</v>
       </c>
       <c r="G157" t="n">
-        <v>76.90000000000001</v>
+        <v>75.7</v>
       </c>
       <c r="H157" t="n">
-        <v>77.40000000000001</v>
+        <v>76.3</v>
       </c>
       <c r="I157" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="J157" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="K157" t="n">
         <v>0.4</v>
@@ -6893,36 +6893,36 @@
         <v>0.9</v>
       </c>
       <c r="M157" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B158" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C158" t="n">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D158" t="n">
         <v>0.6</v>
       </c>
       <c r="E158" t="n">
-        <v>39</v>
+        <v>40.5</v>
       </c>
       <c r="F158" t="n">
         <v>0.1</v>
       </c>
       <c r="G158" t="n">
-        <v>77.90000000000001</v>
+        <v>76.5</v>
       </c>
       <c r="H158" t="n">
-        <v>76.3</v>
+        <v>75.8</v>
       </c>
       <c r="I158" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J158" t="n">
         <v>0.8</v>
@@ -6934,33 +6934,33 @@
         <v>0.9</v>
       </c>
       <c r="M158" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B159" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C159" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D159" t="n">
         <v>0.6</v>
       </c>
       <c r="E159" t="n">
-        <v>38.7</v>
+        <v>40.1</v>
       </c>
       <c r="F159" t="n">
         <v>0.1</v>
       </c>
       <c r="G159" t="n">
-        <v>76.40000000000001</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="H159" t="n">
-        <v>76.40000000000001</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="I159" t="n">
         <v>1</v>
@@ -6980,34 +6980,34 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B160" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C160" t="n">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D160" t="n">
         <v>0.6</v>
       </c>
       <c r="E160" t="n">
-        <v>37.6</v>
+        <v>40.7</v>
       </c>
       <c r="F160" t="n">
         <v>0.1</v>
       </c>
       <c r="G160" t="n">
-        <v>77.90000000000001</v>
+        <v>77.3</v>
       </c>
       <c r="H160" t="n">
-        <v>76.59999999999999</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="I160" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="J160" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="K160" t="n">
         <v>0.4</v>
@@ -7016,36 +7016,36 @@
         <v>0.9</v>
       </c>
       <c r="M160" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B161" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C161" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D161" t="n">
         <v>0.6</v>
       </c>
       <c r="E161" t="n">
-        <v>40.1</v>
+        <v>36.3</v>
       </c>
       <c r="F161" t="n">
         <v>0.1</v>
       </c>
       <c r="G161" t="n">
-        <v>77</v>
+        <v>75.7</v>
       </c>
       <c r="H161" t="n">
-        <v>75.3</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="I161" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J161" t="n">
         <v>0.8</v>
@@ -7057,36 +7057,36 @@
         <v>0.9</v>
       </c>
       <c r="M161" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B162" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C162" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D162" t="n">
         <v>0.6</v>
       </c>
       <c r="E162" t="n">
-        <v>38.4</v>
+        <v>38.8</v>
       </c>
       <c r="F162" t="n">
         <v>0.2</v>
       </c>
       <c r="G162" t="n">
+        <v>51.2</v>
+      </c>
+      <c r="H162" t="n">
         <v>51.7</v>
       </c>
-      <c r="H162" t="n">
-        <v>51.6</v>
-      </c>
       <c r="I162" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="J162" t="n">
         <v>0.8</v>
@@ -7098,39 +7098,39 @@
         <v>0.9</v>
       </c>
       <c r="M162" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B163" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C163" t="n">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="D163" t="n">
         <v>0.6</v>
       </c>
       <c r="E163" t="n">
-        <v>37.2</v>
+        <v>39.9</v>
       </c>
       <c r="F163" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="G163" t="n">
-        <v>51.3</v>
+        <v>50.4</v>
       </c>
       <c r="H163" t="n">
-        <v>51.1</v>
+        <v>51.6</v>
       </c>
       <c r="I163" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="J163" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="K163" t="n">
         <v>0.4</v>
@@ -7144,31 +7144,31 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B164" t="n">
         <v>28</v>
       </c>
       <c r="C164" t="n">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D164" t="n">
         <v>0.6</v>
       </c>
       <c r="E164" t="n">
-        <v>40.6</v>
+        <v>41.9</v>
       </c>
       <c r="F164" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="G164" t="n">
-        <v>51.4</v>
+        <v>51.2</v>
       </c>
       <c r="H164" t="n">
-        <v>51.4</v>
+        <v>51.8</v>
       </c>
       <c r="I164" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J164" t="n">
         <v>0.9</v>
@@ -7180,39 +7180,39 @@
         <v>0.9</v>
       </c>
       <c r="M164" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B165" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C165" t="n">
         <v>71</v>
       </c>
       <c r="D165" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="E165" t="n">
-        <v>41.4</v>
+        <v>39.1</v>
       </c>
       <c r="F165" t="n">
         <v>0.1</v>
       </c>
       <c r="G165" t="n">
-        <v>52.3</v>
+        <v>51.6</v>
       </c>
       <c r="H165" t="n">
-        <v>51.1</v>
+        <v>51</v>
       </c>
       <c r="I165" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J165" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="K165" t="n">
         <v>0.4</v>
@@ -7232,28 +7232,28 @@
         <v>27</v>
       </c>
       <c r="C166" t="n">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D166" t="n">
         <v>0.7</v>
       </c>
       <c r="E166" t="n">
-        <v>39.1</v>
+        <v>43.9</v>
       </c>
       <c r="F166" t="n">
         <v>0.1</v>
       </c>
       <c r="G166" t="n">
-        <v>50.3</v>
+        <v>51</v>
       </c>
       <c r="H166" t="n">
-        <v>50.7</v>
+        <v>50.8</v>
       </c>
       <c r="I166" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="J166" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="K166" t="n">
         <v>0.4</v>
@@ -7262,7 +7262,7 @@
         <v>0.9</v>
       </c>
       <c r="M166" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="167">
@@ -7270,31 +7270,31 @@
         <v>63</v>
       </c>
       <c r="B167" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C167" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D167" t="n">
         <v>0.6</v>
       </c>
       <c r="E167" t="n">
-        <v>40.4</v>
+        <v>37.3</v>
       </c>
       <c r="F167" t="n">
         <v>0.2</v>
       </c>
       <c r="G167" t="n">
-        <v>51.7</v>
+        <v>52.1</v>
       </c>
       <c r="H167" t="n">
-        <v>52</v>
+        <v>51.1</v>
       </c>
       <c r="I167" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="J167" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="K167" t="n">
         <v>0.4</v>
@@ -7303,7 +7303,7 @@
         <v>0.9</v>
       </c>
       <c r="M167" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="168">
@@ -7311,31 +7311,31 @@
         <v>63</v>
       </c>
       <c r="B168" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C168" t="n">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D168" t="n">
         <v>0.6</v>
       </c>
       <c r="E168" t="n">
-        <v>38.1</v>
+        <v>41.2</v>
       </c>
       <c r="F168" t="n">
         <v>0.2</v>
       </c>
       <c r="G168" t="n">
-        <v>51.3</v>
+        <v>52.3</v>
       </c>
       <c r="H168" t="n">
-        <v>52.4</v>
+        <v>51.5</v>
       </c>
       <c r="I168" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J168" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="K168" t="n">
         <v>0.4</v>
@@ -7344,39 +7344,39 @@
         <v>0.9</v>
       </c>
       <c r="M168" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B169" t="n">
         <v>27</v>
       </c>
       <c r="C169" t="n">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D169" t="n">
         <v>0.6</v>
       </c>
       <c r="E169" t="n">
-        <v>40.6</v>
+        <v>39.6</v>
       </c>
       <c r="F169" t="n">
         <v>0.1</v>
       </c>
       <c r="G169" t="n">
-        <v>48.8</v>
+        <v>51.4</v>
       </c>
       <c r="H169" t="n">
-        <v>51.5</v>
+        <v>51.8</v>
       </c>
       <c r="I169" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="J169" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="K169" t="n">
         <v>0.4</v>
@@ -7385,80 +7385,80 @@
         <v>0.9</v>
       </c>
       <c r="M169" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B170" t="n">
+        <v>27</v>
+      </c>
+      <c r="C170" t="n">
+        <v>76</v>
+      </c>
+      <c r="D170" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="E170" t="n">
+        <v>42.1</v>
+      </c>
+      <c r="F170" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G170" t="n">
+        <v>52.3</v>
+      </c>
+      <c r="H170" t="n">
+        <v>52</v>
+      </c>
+      <c r="I170" t="n">
+        <v>7</v>
+      </c>
+      <c r="J170" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="K170" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L170" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="M170" t="n">
         <v>29</v>
-      </c>
-      <c r="C170" t="n">
-        <v>71</v>
-      </c>
-      <c r="D170" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="E170" t="n">
-        <v>38.6</v>
-      </c>
-      <c r="F170" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G170" t="n">
-        <v>50.6</v>
-      </c>
-      <c r="H170" t="n">
-        <v>52.2</v>
-      </c>
-      <c r="I170" t="n">
-        <v>11</v>
-      </c>
-      <c r="J170" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="K170" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="L170" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="M170" t="n">
-        <v>28</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B171" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C171" t="n">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D171" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="E171" t="n">
-        <v>38.8</v>
+        <v>42.4</v>
       </c>
       <c r="F171" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="G171" t="n">
-        <v>50.5</v>
+        <v>50.2</v>
       </c>
       <c r="H171" t="n">
         <v>51.7</v>
       </c>
       <c r="I171" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="J171" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="K171" t="n">
         <v>0.4</v>
@@ -7467,15 +7467,15 @@
         <v>0.9</v>
       </c>
       <c r="M171" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B172" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C172" t="n">
         <v>71</v>
@@ -7484,22 +7484,22 @@
         <v>0.6</v>
       </c>
       <c r="E172" t="n">
-        <v>41.2</v>
+        <v>38.6</v>
       </c>
       <c r="F172" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="G172" t="n">
-        <v>52.3</v>
+        <v>50.6</v>
       </c>
       <c r="H172" t="n">
-        <v>53.2</v>
+        <v>51.1</v>
       </c>
       <c r="I172" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J172" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="K172" t="n">
         <v>0.4</v>
@@ -7508,36 +7508,36 @@
         <v>0.9</v>
       </c>
       <c r="M172" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B173" t="n">
         <v>29</v>
       </c>
       <c r="C173" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D173" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="E173" t="n">
-        <v>39.6</v>
+        <v>43</v>
       </c>
       <c r="F173" t="n">
         <v>0.2</v>
       </c>
       <c r="G173" t="n">
-        <v>51.7</v>
+        <v>51.3</v>
       </c>
       <c r="H173" t="n">
-        <v>51.3</v>
+        <v>52.2</v>
       </c>
       <c r="I173" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="J173" t="n">
         <v>0.8</v>
@@ -7549,7 +7549,7 @@
         <v>0.9</v>
       </c>
       <c r="M173" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="174">
@@ -7560,25 +7560,25 @@
         <v>28</v>
       </c>
       <c r="C174" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D174" t="n">
         <v>0.6</v>
       </c>
       <c r="E174" t="n">
-        <v>38.5</v>
+        <v>40</v>
       </c>
       <c r="F174" t="n">
         <v>0.1</v>
       </c>
       <c r="G174" t="n">
-        <v>50.5</v>
+        <v>51.1</v>
       </c>
       <c r="H174" t="n">
-        <v>51.4</v>
+        <v>51</v>
       </c>
       <c r="I174" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J174" t="n">
         <v>0.8</v>
@@ -7590,39 +7590,39 @@
         <v>0.9</v>
       </c>
       <c r="M174" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B175" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C175" t="n">
         <v>72</v>
       </c>
       <c r="D175" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="E175" t="n">
-        <v>37</v>
+        <v>42.3</v>
       </c>
       <c r="F175" t="n">
         <v>0.2</v>
       </c>
       <c r="G175" t="n">
-        <v>54</v>
+        <v>50.4</v>
       </c>
       <c r="H175" t="n">
-        <v>51.5</v>
+        <v>52.4</v>
       </c>
       <c r="I175" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="J175" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="K175" t="n">
         <v>0.4</v>
@@ -7631,39 +7631,39 @@
         <v>0.9</v>
       </c>
       <c r="M175" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B176" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C176" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D176" t="n">
         <v>0.6</v>
       </c>
       <c r="E176" t="n">
-        <v>36.6</v>
+        <v>38.4</v>
       </c>
       <c r="F176" t="n">
         <v>0.1</v>
       </c>
       <c r="G176" t="n">
-        <v>51.8</v>
+        <v>50.9</v>
       </c>
       <c r="H176" t="n">
-        <v>52.4</v>
+        <v>50.6</v>
       </c>
       <c r="I176" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J176" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="K176" t="n">
         <v>0.4</v>
@@ -7672,7 +7672,7 @@
         <v>0.9</v>
       </c>
       <c r="M176" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="177">
@@ -7680,28 +7680,28 @@
         <v>61</v>
       </c>
       <c r="B177" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C177" t="n">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D177" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="E177" t="n">
-        <v>36.9</v>
+        <v>40.9</v>
       </c>
       <c r="F177" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="G177" t="n">
-        <v>52</v>
+        <v>52.4</v>
       </c>
       <c r="H177" t="n">
-        <v>52.1</v>
+        <v>50.1</v>
       </c>
       <c r="I177" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="J177" t="n">
         <v>0.8</v>
@@ -7713,7 +7713,7 @@
         <v>0.9</v>
       </c>
       <c r="M177" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="178">
@@ -7724,28 +7724,28 @@
         <v>28</v>
       </c>
       <c r="C178" t="n">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D178" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="E178" t="n">
-        <v>38.2</v>
+        <v>40.4</v>
       </c>
       <c r="F178" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="G178" t="n">
-        <v>50.5</v>
+        <v>54.1</v>
       </c>
       <c r="H178" t="n">
-        <v>52.1</v>
+        <v>51.8</v>
       </c>
       <c r="I178" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J178" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="K178" t="n">
         <v>0.4</v>
@@ -7759,31 +7759,31 @@
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B179" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C179" t="n">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D179" t="n">
         <v>0.6</v>
       </c>
       <c r="E179" t="n">
-        <v>42.7</v>
+        <v>39.6</v>
       </c>
       <c r="F179" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="G179" t="n">
-        <v>50.1</v>
+        <v>51.5</v>
       </c>
       <c r="H179" t="n">
-        <v>51.2</v>
+        <v>51.3</v>
       </c>
       <c r="I179" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J179" t="n">
         <v>0.8</v>
@@ -7795,36 +7795,36 @@
         <v>0.9</v>
       </c>
       <c r="M179" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B180" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C180" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D180" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="E180" t="n">
-        <v>37.9</v>
+        <v>41.2</v>
       </c>
       <c r="F180" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="G180" t="n">
-        <v>51.3</v>
+        <v>51</v>
       </c>
       <c r="H180" t="n">
-        <v>52.8</v>
+        <v>51.9</v>
       </c>
       <c r="I180" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J180" t="n">
         <v>0.9</v>
@@ -7836,39 +7836,39 @@
         <v>0.9</v>
       </c>
       <c r="M180" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B181" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C181" t="n">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D181" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="E181" t="n">
-        <v>39.9</v>
+        <v>45.2</v>
       </c>
       <c r="F181" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="G181" t="n">
-        <v>50.6</v>
+        <v>51</v>
       </c>
       <c r="H181" t="n">
-        <v>50.5</v>
+        <v>51.9</v>
       </c>
       <c r="I181" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="J181" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="K181" t="n">
         <v>0.4</v>
@@ -7877,7 +7877,7 @@
         <v>0.9</v>
       </c>
       <c r="M181" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="182">
@@ -7888,28 +7888,28 @@
         <v>29</v>
       </c>
       <c r="C182" t="n">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D182" t="n">
         <v>0.6</v>
       </c>
       <c r="E182" t="n">
-        <v>43.4</v>
+        <v>39.7</v>
       </c>
       <c r="F182" t="n">
         <v>0.1</v>
       </c>
       <c r="G182" t="n">
-        <v>94.3</v>
+        <v>94.2</v>
       </c>
       <c r="H182" t="n">
-        <v>95</v>
+        <v>96.8</v>
       </c>
       <c r="I182" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="J182" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="K182" t="n">
         <v>0.4</v>
@@ -7926,28 +7926,28 @@
         <v>48</v>
       </c>
       <c r="B183" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C183" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D183" t="n">
         <v>0.6</v>
       </c>
       <c r="E183" t="n">
-        <v>42.9</v>
+        <v>43</v>
       </c>
       <c r="F183" t="n">
         <v>0.1</v>
       </c>
       <c r="G183" t="n">
-        <v>95.7</v>
+        <v>95</v>
       </c>
       <c r="H183" t="n">
-        <v>94.5</v>
+        <v>95</v>
       </c>
       <c r="I183" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J183" t="n">
         <v>0.8</v>
@@ -7964,34 +7964,34 @@
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B184" t="n">
         <v>29</v>
       </c>
       <c r="C184" t="n">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D184" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="E184" t="n">
-        <v>39.7</v>
+        <v>40.2</v>
       </c>
       <c r="F184" t="n">
         <v>0.1</v>
       </c>
       <c r="G184" t="n">
-        <v>94.59999999999999</v>
+        <v>96.3</v>
       </c>
       <c r="H184" t="n">
-        <v>95.90000000000001</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="I184" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J184" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="K184" t="n">
         <v>0.4</v>
@@ -8000,18 +8000,18 @@
         <v>0.9</v>
       </c>
       <c r="M184" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B185" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C185" t="n">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D185" t="n">
         <v>0.6</v>
@@ -8023,16 +8023,16 @@
         <v>0.1</v>
       </c>
       <c r="G185" t="n">
-        <v>96.09999999999999</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="H185" t="n">
-        <v>95.59999999999999</v>
+        <v>96</v>
       </c>
       <c r="I185" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="J185" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="K185" t="n">
         <v>0.4</v>
@@ -8046,31 +8046,31 @@
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B186" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C186" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D186" t="n">
         <v>0.6</v>
       </c>
       <c r="E186" t="n">
-        <v>42.2</v>
+        <v>41.2</v>
       </c>
       <c r="F186" t="n">
         <v>0.1</v>
       </c>
       <c r="G186" t="n">
-        <v>93.7</v>
+        <v>96.2</v>
       </c>
       <c r="H186" t="n">
-        <v>94.90000000000001</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="I186" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="J186" t="n">
         <v>0.9</v>
@@ -8090,31 +8090,31 @@
         <v>47</v>
       </c>
       <c r="B187" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C187" t="n">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D187" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="E187" t="n">
-        <v>37.5</v>
+        <v>36.7</v>
       </c>
       <c r="F187" t="n">
         <v>0.1</v>
       </c>
       <c r="G187" t="n">
-        <v>94.5</v>
+        <v>95.7</v>
       </c>
       <c r="H187" t="n">
-        <v>94.90000000000001</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="I187" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="J187" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="K187" t="n">
         <v>0.4</v>
@@ -8123,36 +8123,36 @@
         <v>0.9</v>
       </c>
       <c r="M187" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B188" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C188" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D188" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="E188" t="n">
-        <v>42</v>
+        <v>39.7</v>
       </c>
       <c r="F188" t="n">
         <v>0.1</v>
       </c>
       <c r="G188" t="n">
-        <v>94.3</v>
+        <v>95</v>
       </c>
       <c r="H188" t="n">
-        <v>94.09999999999999</v>
+        <v>96.7</v>
       </c>
       <c r="I188" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="J188" t="n">
         <v>0.8</v>
@@ -8164,39 +8164,39 @@
         <v>0.9</v>
       </c>
       <c r="M188" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B189" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C189" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D189" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="E189" t="n">
-        <v>44.9</v>
+        <v>40.2</v>
       </c>
       <c r="F189" t="n">
         <v>0.1</v>
       </c>
       <c r="G189" t="n">
-        <v>95.09999999999999</v>
+        <v>95.5</v>
       </c>
       <c r="H189" t="n">
-        <v>94</v>
+        <v>95.3</v>
       </c>
       <c r="I189" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="J189" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="K189" t="n">
         <v>0.4</v>
@@ -8210,7 +8210,7 @@
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B190" t="n">
         <v>29</v>
@@ -8222,22 +8222,22 @@
         <v>0.5</v>
       </c>
       <c r="E190" t="n">
-        <v>39.6</v>
+        <v>36.9</v>
       </c>
       <c r="F190" t="n">
         <v>0.1</v>
       </c>
       <c r="G190" t="n">
-        <v>96.3</v>
+        <v>96.5</v>
       </c>
       <c r="H190" t="n">
-        <v>94.5</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="I190" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="J190" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="K190" t="n">
         <v>0.4</v>
@@ -8246,39 +8246,39 @@
         <v>0.9</v>
       </c>
       <c r="M190" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B191" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C191" t="n">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D191" t="n">
         <v>0.6</v>
       </c>
       <c r="E191" t="n">
-        <v>41.7</v>
+        <v>37.9</v>
       </c>
       <c r="F191" t="n">
         <v>0.1</v>
       </c>
       <c r="G191" t="n">
-        <v>96.5</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="H191" t="n">
-        <v>94.09999999999999</v>
+        <v>94.2</v>
       </c>
       <c r="I191" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="J191" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="K191" t="n">
         <v>0.4</v>
@@ -8292,31 +8292,31 @@
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B192" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C192" t="n">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D192" t="n">
         <v>0.6</v>
       </c>
       <c r="E192" t="n">
-        <v>39.6</v>
+        <v>39.1</v>
       </c>
       <c r="F192" t="n">
         <v>0.1</v>
       </c>
       <c r="G192" t="n">
-        <v>95.90000000000001</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="H192" t="n">
-        <v>94.09999999999999</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="I192" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="J192" t="n">
         <v>0.8</v>
@@ -8328,39 +8328,39 @@
         <v>0.9</v>
       </c>
       <c r="M192" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B193" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C193" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D193" t="n">
         <v>0.6</v>
       </c>
       <c r="E193" t="n">
-        <v>40.4</v>
+        <v>37.2</v>
       </c>
       <c r="F193" t="n">
         <v>0.1</v>
       </c>
       <c r="G193" t="n">
-        <v>94.3</v>
+        <v>96</v>
       </c>
       <c r="H193" t="n">
-        <v>94.5</v>
+        <v>95.3</v>
       </c>
       <c r="I193" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="J193" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="K193" t="n">
         <v>0.4</v>
@@ -8369,39 +8369,39 @@
         <v>0.9</v>
       </c>
       <c r="M193" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B194" t="n">
         <v>28</v>
       </c>
       <c r="C194" t="n">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D194" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="E194" t="n">
-        <v>40.9</v>
+        <v>41.3</v>
       </c>
       <c r="F194" t="n">
         <v>0.1</v>
       </c>
       <c r="G194" t="n">
-        <v>94.2</v>
+        <v>95.7</v>
       </c>
       <c r="H194" t="n">
-        <v>95.2</v>
+        <v>94.8</v>
       </c>
       <c r="I194" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J194" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="K194" t="n">
         <v>0.4</v>
@@ -8410,39 +8410,39 @@
         <v>0.9</v>
       </c>
       <c r="M194" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B195" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C195" t="n">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D195" t="n">
         <v>0.6</v>
       </c>
       <c r="E195" t="n">
-        <v>41.5</v>
+        <v>41.3</v>
       </c>
       <c r="F195" t="n">
         <v>0.1</v>
       </c>
       <c r="G195" t="n">
-        <v>95.09999999999999</v>
+        <v>94.8</v>
       </c>
       <c r="H195" t="n">
-        <v>96.59999999999999</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="I195" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="J195" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="K195" t="n">
         <v>0.4</v>
@@ -8456,34 +8456,34 @@
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B196" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C196" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D196" t="n">
         <v>0.7</v>
       </c>
       <c r="E196" t="n">
-        <v>40.3</v>
+        <v>41.9</v>
       </c>
       <c r="F196" t="n">
         <v>0.1</v>
       </c>
       <c r="G196" t="n">
-        <v>97.5</v>
+        <v>93</v>
       </c>
       <c r="H196" t="n">
-        <v>93.09999999999999</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="I196" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J196" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="K196" t="n">
         <v>0.4</v>
@@ -8492,36 +8492,36 @@
         <v>0.9</v>
       </c>
       <c r="M196" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B197" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C197" t="n">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D197" t="n">
         <v>0.6</v>
       </c>
       <c r="E197" t="n">
-        <v>42.2</v>
+        <v>42.6</v>
       </c>
       <c r="F197" t="n">
         <v>0.1</v>
       </c>
       <c r="G197" t="n">
-        <v>95.3</v>
+        <v>94.7</v>
       </c>
       <c r="H197" t="n">
-        <v>94.7</v>
+        <v>93</v>
       </c>
       <c r="I197" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J197" t="n">
         <v>0.8</v>
@@ -8533,36 +8533,36 @@
         <v>0.9</v>
       </c>
       <c r="M197" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B198" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C198" t="n">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D198" t="n">
         <v>0.6</v>
       </c>
       <c r="E198" t="n">
-        <v>40.6</v>
+        <v>41.3</v>
       </c>
       <c r="F198" t="n">
         <v>0.1</v>
       </c>
       <c r="G198" t="n">
-        <v>96.5</v>
+        <v>95.7</v>
       </c>
       <c r="H198" t="n">
-        <v>95.3</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="I198" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J198" t="n">
         <v>0.8</v>
@@ -8574,7 +8574,7 @@
         <v>0.9</v>
       </c>
       <c r="M198" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="199">
@@ -8585,28 +8585,28 @@
         <v>27</v>
       </c>
       <c r="C199" t="n">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D199" t="n">
         <v>0.6</v>
       </c>
       <c r="E199" t="n">
-        <v>41.6</v>
+        <v>39.7</v>
       </c>
       <c r="F199" t="n">
         <v>0.1</v>
       </c>
       <c r="G199" t="n">
-        <v>93.5</v>
+        <v>95.3</v>
       </c>
       <c r="H199" t="n">
-        <v>94.40000000000001</v>
+        <v>96.7</v>
       </c>
       <c r="I199" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="J199" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="K199" t="n">
         <v>0.4</v>
@@ -8615,36 +8615,36 @@
         <v>0.9</v>
       </c>
       <c r="M199" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B200" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C200" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D200" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="E200" t="n">
-        <v>40.4</v>
+        <v>37.9</v>
       </c>
       <c r="F200" t="n">
         <v>0.1</v>
       </c>
       <c r="G200" t="n">
-        <v>95.7</v>
+        <v>93.2</v>
       </c>
       <c r="H200" t="n">
-        <v>94.40000000000001</v>
+        <v>95.3</v>
       </c>
       <c r="I200" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="J200" t="n">
         <v>0.8</v>
@@ -8656,39 +8656,39 @@
         <v>0.9</v>
       </c>
       <c r="M200" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B201" t="n">
         <v>29</v>
       </c>
       <c r="C201" t="n">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D201" t="n">
         <v>0.6</v>
       </c>
       <c r="E201" t="n">
-        <v>39.3</v>
+        <v>38.8</v>
       </c>
       <c r="F201" t="n">
         <v>0.1</v>
       </c>
       <c r="G201" t="n">
-        <v>94.7</v>
+        <v>94.3</v>
       </c>
       <c r="H201" t="n">
-        <v>95.59999999999999</v>
+        <v>94.8</v>
       </c>
       <c r="I201" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J201" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="K201" t="n">
         <v>0.4</v>
@@ -8697,7 +8697,7 @@
         <v>0.9</v>
       </c>
       <c r="M201" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
